--- a/Budburst Chill Datasheet 2016-01-05.xlsx
+++ b/Budburst Chill Datasheet 2016-01-05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="0" windowWidth="35300" windowHeight="26580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="25780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Chambers" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasheet!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasheet!$A$1:$Z$625</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BBCHscale!$A$1:$G$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Datasheet!$A$1:$Z$517</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Datasheet!$A:$C,Datasheet!$1:$1</definedName>
@@ -3484,13 +3484,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y372" sqref="Y372"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3650,11 +3651,11 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q2,1))</f>
+        <f t="shared" ref="S2:S65" si="0">CONCATENATE("chill",LEFT(Q2,1))</f>
         <v>chill1</v>
       </c>
       <c r="T2" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q2,1))</f>
+        <f t="shared" ref="T2:T65" si="1">CONCATENATE("time",RIGHT(Q2,1))</f>
         <v>time1</v>
       </c>
       <c r="U2" s="19"/>
@@ -3716,11 +3717,11 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q3,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T3" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q3,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U3" s="12"/>
@@ -3782,11 +3783,11 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q4,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T4" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q4,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U4" s="12"/>
@@ -3848,11 +3849,11 @@
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24" t="str">
-        <f>CONCATENATE("chill",LEFT(Q5,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T5" s="24" t="str">
-        <f>CONCATENATE("time",RIGHT(Q5,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U5" s="20"/>
@@ -3913,11 +3914,11 @@
         <v>23</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q6,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q6,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -3972,11 +3973,11 @@
         <v>23</v>
       </c>
       <c r="S7" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q7,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T7" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q7,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -4032,11 +4033,11 @@
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="24" t="str">
-        <f>CONCATENATE("chill",LEFT(Q8,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T8" s="24" t="str">
-        <f>CONCATENATE("time",RIGHT(Q8,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U8" s="20"/>
@@ -4097,11 +4098,11 @@
         <v>23</v>
       </c>
       <c r="S9" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q9,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T9" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q9,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -4156,11 +4157,11 @@
         <v>23</v>
       </c>
       <c r="S10" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q10,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T10" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q10,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -4216,11 +4217,11 @@
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q11,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T11" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q11,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U11" s="19"/>
@@ -4282,11 +4283,11 @@
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q12,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T12" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q12,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U12" s="12"/>
@@ -4348,11 +4349,11 @@
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q13,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T13" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q13,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U13" s="12"/>
@@ -4414,11 +4415,11 @@
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24" t="str">
-        <f>CONCATENATE("chill",LEFT(Q14,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T14" s="24" t="str">
-        <f>CONCATENATE("time",RIGHT(Q14,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U14" s="20"/>
@@ -4479,11 +4480,11 @@
         <v>23</v>
       </c>
       <c r="S15" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q15,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T15" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q15,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -4538,11 +4539,11 @@
         <v>23</v>
       </c>
       <c r="S16" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q16,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T16" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q16,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -4598,11 +4599,11 @@
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q17,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T17" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q17,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U17" s="19"/>
@@ -4664,11 +4665,11 @@
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q18,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T18" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q18,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U18" s="12"/>
@@ -4730,11 +4731,11 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q19,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T19" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q19,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U19" s="12"/>
@@ -4796,11 +4797,11 @@
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q20,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T20" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q20,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U20" s="19"/>
@@ -4862,11 +4863,11 @@
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q21,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T21" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q21,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U21" s="12"/>
@@ -4928,11 +4929,11 @@
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q22,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T22" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q22,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U22" s="12"/>
@@ -4994,11 +4995,11 @@
       </c>
       <c r="R23" s="20"/>
       <c r="S23" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q23,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T23" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q23,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U23" s="20"/>
@@ -5059,11 +5060,11 @@
         <v>23</v>
       </c>
       <c r="S24" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q24,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T24" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q24,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5118,11 +5119,11 @@
         <v>23</v>
       </c>
       <c r="S25" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q25,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T25" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q25,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5178,11 +5179,11 @@
       </c>
       <c r="R26" s="20"/>
       <c r="S26" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q26,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T26" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q26,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U26" s="20"/>
@@ -5243,11 +5244,11 @@
         <v>23</v>
       </c>
       <c r="S27" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q27,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T27" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q27,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5302,11 +5303,11 @@
         <v>23</v>
       </c>
       <c r="S28" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q28,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T28" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q28,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5362,11 +5363,11 @@
       </c>
       <c r="R29" s="20"/>
       <c r="S29" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q29,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T29" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q29,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U29" s="20"/>
@@ -5427,11 +5428,11 @@
         <v>23</v>
       </c>
       <c r="S30" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q30,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T30" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q30,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5486,11 +5487,11 @@
         <v>23</v>
       </c>
       <c r="S31" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q31,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T31" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q31,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5546,11 +5547,11 @@
       </c>
       <c r="R32" s="20"/>
       <c r="S32" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q32,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T32" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q32,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U32" s="20"/>
@@ -5611,11 +5612,11 @@
         <v>23</v>
       </c>
       <c r="S33" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q33,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T33" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q33,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5670,11 +5671,11 @@
         <v>23</v>
       </c>
       <c r="S34" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q34,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T34" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q34,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5730,11 +5731,11 @@
       </c>
       <c r="R35" s="20"/>
       <c r="S35" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q35,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T35" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q35,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U35" s="20"/>
@@ -5795,11 +5796,11 @@
         <v>23</v>
       </c>
       <c r="S36" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q36,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T36" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q36,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5854,11 +5855,11 @@
         <v>23</v>
       </c>
       <c r="S37" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q37,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T37" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q37,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -5914,11 +5915,11 @@
       </c>
       <c r="R38" s="20"/>
       <c r="S38" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q38,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T38" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q38,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U38" s="20"/>
@@ -5979,11 +5980,11 @@
         <v>23</v>
       </c>
       <c r="S39" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q39,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T39" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q39,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6038,11 +6039,11 @@
         <v>23</v>
       </c>
       <c r="S40" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q40,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T40" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q40,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6098,11 +6099,11 @@
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="17" t="str">
-        <f>CONCATENATE("chill",LEFT(Q41,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T41" s="17" t="str">
-        <f>CONCATENATE("time",RIGHT(Q41,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U41" s="19"/>
@@ -6164,11 +6165,11 @@
       </c>
       <c r="R42" s="12"/>
       <c r="S42" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q42,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T42" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q42,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U42" s="12"/>
@@ -6230,11 +6231,11 @@
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q43,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T43" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q43,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U43" s="12"/>
@@ -6296,11 +6297,11 @@
       </c>
       <c r="R44" s="20"/>
       <c r="S44" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q44,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T44" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q44,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U44" s="20"/>
@@ -6361,11 +6362,11 @@
         <v>23</v>
       </c>
       <c r="S45" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q45,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T45" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q45,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6420,11 +6421,11 @@
         <v>23</v>
       </c>
       <c r="S46" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q46,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T46" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q46,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6480,11 +6481,11 @@
       </c>
       <c r="R47" s="20"/>
       <c r="S47" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q47,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T47" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q47,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U47" s="20"/>
@@ -6545,11 +6546,11 @@
         <v>23</v>
       </c>
       <c r="S48" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q48,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T48" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q48,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6604,11 +6605,11 @@
         <v>23</v>
       </c>
       <c r="S49" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q49,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T49" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q49,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
     </row>
@@ -6664,11 +6665,11 @@
       </c>
       <c r="R50" s="17"/>
       <c r="S50" s="17" t="str">
-        <f>CONCATENATE("chill",LEFT(Q50,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T50" s="17" t="str">
-        <f>CONCATENATE("time",RIGHT(Q50,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U50" s="19"/>
@@ -6730,11 +6731,11 @@
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q51,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T51" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q51,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U51" s="12"/>
@@ -6796,11 +6797,11 @@
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q52,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T52" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q52,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U52" s="12"/>
@@ -6862,11 +6863,11 @@
       </c>
       <c r="R53" s="17"/>
       <c r="S53" s="17" t="str">
-        <f>CONCATENATE("chill",LEFT(Q53,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T53" s="17" t="str">
-        <f>CONCATENATE("time",RIGHT(Q53,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U53" s="19"/>
@@ -6928,11 +6929,11 @@
       </c>
       <c r="R54" s="12"/>
       <c r="S54" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q54,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T54" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q54,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U54" s="12"/>
@@ -6994,11 +6995,11 @@
       </c>
       <c r="R55" s="12"/>
       <c r="S55" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(Q55,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T55" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(Q55,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="U55" s="12"/>
@@ -7055,11 +7056,11 @@
         <v>17</v>
       </c>
       <c r="S56" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q56,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T56" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q56,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7110,11 +7111,11 @@
         <v>17</v>
       </c>
       <c r="S57" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q57,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T57" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q57,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7165,11 +7166,11 @@
         <v>17</v>
       </c>
       <c r="S58" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q58,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T58" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q58,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7220,11 +7221,11 @@
         <v>2</v>
       </c>
       <c r="S59" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q59,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T59" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q59,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7275,11 +7276,11 @@
         <v>17</v>
       </c>
       <c r="S60" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q60,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T60" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q60,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7330,11 +7331,11 @@
         <v>17</v>
       </c>
       <c r="S61" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q61,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T61" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q61,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7385,11 +7386,11 @@
         <v>17</v>
       </c>
       <c r="S62" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q62,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T62" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q62,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7440,11 +7441,11 @@
         <v>17</v>
       </c>
       <c r="S63" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q63,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T63" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q63,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7495,11 +7496,11 @@
         <v>17</v>
       </c>
       <c r="S64" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q64,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T64" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q64,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7550,11 +7551,11 @@
         <v>17</v>
       </c>
       <c r="S65" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q65,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="T65" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q65,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -7605,11 +7606,11 @@
         <v>17</v>
       </c>
       <c r="S66" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q66,1))</f>
+        <f t="shared" ref="S66:S129" si="2">CONCATENATE("chill",LEFT(Q66,1))</f>
         <v>chill1</v>
       </c>
       <c r="T66" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q66,1))</f>
+        <f t="shared" ref="T66:T129" si="3">CONCATENATE("time",RIGHT(Q66,1))</f>
         <v>time2</v>
       </c>
     </row>
@@ -7660,11 +7661,11 @@
         <v>17</v>
       </c>
       <c r="S67" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q67,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T67" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q67,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -7715,11 +7716,11 @@
         <v>17</v>
       </c>
       <c r="S68" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q68,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T68" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q68,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -7773,11 +7774,11 @@
         <v>17</v>
       </c>
       <c r="S69" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q69,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T69" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q69,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -7831,11 +7832,11 @@
         <v>17</v>
       </c>
       <c r="S70" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q70,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T70" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q70,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -7889,11 +7890,11 @@
         <v>17</v>
       </c>
       <c r="S71" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q71,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T71" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q71,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -7947,11 +7948,11 @@
         <v>1</v>
       </c>
       <c r="S72" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q72,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T72" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q72,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8005,11 +8006,11 @@
         <v>1</v>
       </c>
       <c r="S73" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q73,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T73" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q73,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8060,11 +8061,11 @@
         <v>1</v>
       </c>
       <c r="S74" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q74,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T74" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q74,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8115,11 +8116,11 @@
         <v>17</v>
       </c>
       <c r="S75" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q75,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T75" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q75,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8170,11 +8171,11 @@
         <v>17</v>
       </c>
       <c r="S76" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q76,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T76" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q76,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8225,11 +8226,11 @@
         <v>17</v>
       </c>
       <c r="S77" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q77,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T77" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q77,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8280,11 +8281,11 @@
         <v>17</v>
       </c>
       <c r="S78" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q78,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T78" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q78,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8335,11 +8336,11 @@
         <v>17</v>
       </c>
       <c r="S79" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q79,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T79" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q79,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8390,11 +8391,11 @@
         <v>17</v>
       </c>
       <c r="S80" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q80,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T80" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q80,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8445,11 +8446,11 @@
         <v>17</v>
       </c>
       <c r="S81" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q81,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T81" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q81,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8500,11 +8501,11 @@
         <v>17</v>
       </c>
       <c r="S82" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q82,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T82" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q82,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8555,11 +8556,11 @@
         <v>17</v>
       </c>
       <c r="S83" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q83,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T83" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q83,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8610,11 +8611,11 @@
         <v>17</v>
       </c>
       <c r="S84" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q84,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T84" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q84,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8665,11 +8666,11 @@
         <v>17</v>
       </c>
       <c r="S85" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q85,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T85" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q85,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8720,11 +8721,11 @@
         <v>17</v>
       </c>
       <c r="S86" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q86,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T86" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q86,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8775,11 +8776,11 @@
         <v>17</v>
       </c>
       <c r="S87" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q87,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T87" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q87,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8830,11 +8831,11 @@
         <v>17</v>
       </c>
       <c r="S88" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q88,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T88" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q88,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8885,11 +8886,11 @@
         <v>17</v>
       </c>
       <c r="S89" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q89,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T89" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q89,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8940,11 +8941,11 @@
         <v>17</v>
       </c>
       <c r="S90" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q90,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T90" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q90,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -8995,11 +8996,11 @@
         <v>17</v>
       </c>
       <c r="S91" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q91,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T91" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q91,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9050,11 +9051,11 @@
         <v>17</v>
       </c>
       <c r="S92" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q92,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T92" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q92,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9105,11 +9106,11 @@
         <v>17</v>
       </c>
       <c r="S93" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q93,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T93" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q93,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9160,11 +9161,11 @@
         <v>17</v>
       </c>
       <c r="S94" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q94,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T94" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q94,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9215,11 +9216,11 @@
         <v>17</v>
       </c>
       <c r="S95" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q95,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T95" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q95,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9270,11 +9271,11 @@
         <v>17</v>
       </c>
       <c r="S96" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q96,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T96" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q96,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9325,11 +9326,11 @@
         <v>17</v>
       </c>
       <c r="S97" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q97,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T97" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q97,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9380,11 +9381,11 @@
         <v>17</v>
       </c>
       <c r="S98" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q98,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T98" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q98,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9435,11 +9436,11 @@
         <v>17</v>
       </c>
       <c r="S99" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q99,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T99" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q99,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9490,11 +9491,11 @@
         <v>17</v>
       </c>
       <c r="S100" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q100,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T100" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q100,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9545,11 +9546,11 @@
         <v>17</v>
       </c>
       <c r="S101" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q101,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T101" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q101,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9600,11 +9601,11 @@
         <v>17</v>
       </c>
       <c r="S102" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q102,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T102" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q102,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9655,11 +9656,11 @@
         <v>17</v>
       </c>
       <c r="S103" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q103,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T103" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q103,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
@@ -9710,15 +9711,15 @@
         <v>17</v>
       </c>
       <c r="S104" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q104,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T104" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q104,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="105" spans="2:20">
+    <row r="105" spans="2:20" ht="16" thickBot="1">
       <c r="B105" s="13">
         <v>1</v>
       </c>
@@ -9768,15 +9769,15 @@
         <v>2</v>
       </c>
       <c r="S105" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q105,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T105" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q105,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="106" spans="2:20">
+    <row r="106" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B106" s="13">
         <v>1</v>
       </c>
@@ -9823,15 +9824,15 @@
         <v>31</v>
       </c>
       <c r="S106" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q106,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T106" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q106,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="107" spans="2:20">
+    <row r="107" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B107" s="13">
         <v>2</v>
       </c>
@@ -9878,15 +9879,15 @@
         <v>31</v>
       </c>
       <c r="S107" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q107,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T107" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q107,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="108" spans="2:20">
+    <row r="108" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B108" s="13">
         <v>3</v>
       </c>
@@ -9933,15 +9934,15 @@
         <v>31</v>
       </c>
       <c r="S108" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q108,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T108" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q108,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="109" spans="2:20">
+    <row r="109" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B109" s="13">
         <v>2</v>
       </c>
@@ -9988,15 +9989,15 @@
         <v>31</v>
       </c>
       <c r="S109" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q109,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T109" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q109,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="110" spans="2:20">
+    <row r="110" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B110" s="13">
         <v>1</v>
       </c>
@@ -10043,15 +10044,15 @@
         <v>31</v>
       </c>
       <c r="S110" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q110,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T110" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q110,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="111" spans="2:20">
+    <row r="111" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B111" s="13">
         <v>3</v>
       </c>
@@ -10098,15 +10099,15 @@
         <v>31</v>
       </c>
       <c r="S111" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q111,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T111" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q111,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="112" spans="2:20">
+    <row r="112" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B112" s="13">
         <v>2</v>
       </c>
@@ -10153,15 +10154,15 @@
         <v>31</v>
       </c>
       <c r="S112" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q112,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T112" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q112,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B113" s="13">
         <v>1</v>
       </c>
@@ -10208,15 +10209,15 @@
         <v>31</v>
       </c>
       <c r="S113" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q113,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T113" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q113,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B114" s="13">
         <v>1</v>
       </c>
@@ -10263,15 +10264,15 @@
         <v>31</v>
       </c>
       <c r="S114" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q114,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T114" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q114,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B115" s="13">
         <v>3</v>
       </c>
@@ -10318,15 +10319,15 @@
         <v>31</v>
       </c>
       <c r="S115" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q115,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T115" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q115,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B116" s="13">
         <v>2</v>
       </c>
@@ -10373,15 +10374,15 @@
         <v>31</v>
       </c>
       <c r="S116" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q116,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T116" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q116,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B117" s="13">
         <v>1</v>
       </c>
@@ -10428,15 +10429,15 @@
         <v>31</v>
       </c>
       <c r="S117" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q117,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T117" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q117,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B118" s="13">
         <v>3</v>
       </c>
@@ -10483,15 +10484,15 @@
         <v>31</v>
       </c>
       <c r="S118" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q118,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T118" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q118,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B119" s="13">
         <v>2</v>
       </c>
@@ -10538,15 +10539,15 @@
         <v>31</v>
       </c>
       <c r="S119" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q119,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T119" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q119,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B120" s="13">
         <v>1</v>
       </c>
@@ -10593,15 +10594,15 @@
         <v>31</v>
       </c>
       <c r="S120" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q120,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T120" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q120,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B121" s="13">
         <v>2</v>
       </c>
@@ -10648,15 +10649,15 @@
         <v>31</v>
       </c>
       <c r="S121" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q121,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T121" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q121,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B122" s="13">
         <v>3</v>
       </c>
@@ -10703,15 +10704,15 @@
         <v>31</v>
       </c>
       <c r="S122" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q122,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T122" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q122,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B123" s="13">
         <v>2</v>
       </c>
@@ -10758,15 +10759,15 @@
         <v>31</v>
       </c>
       <c r="S123" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q123,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T123" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q123,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B124" s="13">
         <v>1</v>
       </c>
@@ -10813,15 +10814,15 @@
         <v>31</v>
       </c>
       <c r="S124" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q124,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T124" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q124,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B125" s="13">
         <v>3</v>
       </c>
@@ -10868,15 +10869,15 @@
         <v>31</v>
       </c>
       <c r="S125" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q125,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T125" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q125,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B126" s="13">
         <v>1</v>
       </c>
@@ -10923,15 +10924,15 @@
         <v>31</v>
       </c>
       <c r="S126" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q126,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T126" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q126,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B127" s="13">
         <v>2</v>
       </c>
@@ -10978,15 +10979,15 @@
         <v>31</v>
       </c>
       <c r="S127" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q127,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T127" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q127,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B128" s="13">
         <v>1</v>
       </c>
@@ -11033,15 +11034,15 @@
         <v>31</v>
       </c>
       <c r="S128" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q128,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T128" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q128,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="129" spans="2:20">
+    <row r="129" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B129" s="13">
         <v>3</v>
       </c>
@@ -11088,15 +11089,15 @@
         <v>31</v>
       </c>
       <c r="S129" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q129,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="T129" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q129,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="130" spans="2:20">
+    <row r="130" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B130" s="13">
         <v>1</v>
       </c>
@@ -11143,15 +11144,15 @@
         <v>31</v>
       </c>
       <c r="S130" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q130,1))</f>
+        <f t="shared" ref="S130:S193" si="4">CONCATENATE("chill",LEFT(Q130,1))</f>
         <v>chill1</v>
       </c>
       <c r="T130" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q130,1))</f>
+        <f t="shared" ref="T130:T193" si="5">CONCATENATE("time",RIGHT(Q130,1))</f>
         <v>time3</v>
       </c>
     </row>
-    <row r="131" spans="2:20">
+    <row r="131" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B131" s="13">
         <v>1</v>
       </c>
@@ -11198,15 +11199,15 @@
         <v>31</v>
       </c>
       <c r="S131" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q131,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T131" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q131,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="132" spans="2:20">
+    <row r="132" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B132" s="13">
         <v>2</v>
       </c>
@@ -11253,15 +11254,15 @@
         <v>31</v>
       </c>
       <c r="S132" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q132,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T132" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q132,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="133" spans="2:20">
+    <row r="133" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B133" s="13">
         <v>2</v>
       </c>
@@ -11308,15 +11309,15 @@
         <v>31</v>
       </c>
       <c r="S133" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q133,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T133" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q133,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="134" spans="2:20">
+    <row r="134" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B134" s="13">
         <v>1</v>
       </c>
@@ -11363,15 +11364,15 @@
         <v>31</v>
       </c>
       <c r="S134" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q134,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T134" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q134,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="135" spans="2:20">
+    <row r="135" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B135" s="13">
         <v>3</v>
       </c>
@@ -11418,15 +11419,15 @@
         <v>31</v>
       </c>
       <c r="S135" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q135,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T135" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q135,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="136" spans="2:20">
+    <row r="136" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B136" s="13">
         <v>3</v>
       </c>
@@ -11473,15 +11474,15 @@
         <v>31</v>
       </c>
       <c r="S136" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q136,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T136" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q136,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="137" spans="2:20">
+    <row r="137" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B137" s="13">
         <v>2</v>
       </c>
@@ -11528,15 +11529,15 @@
         <v>31</v>
       </c>
       <c r="S137" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q137,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T137" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q137,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="138" spans="2:20">
+    <row r="138" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B138" s="13">
         <v>1</v>
       </c>
@@ -11583,15 +11584,15 @@
         <v>31</v>
       </c>
       <c r="S138" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q138,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T138" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q138,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="139" spans="2:20">
+    <row r="139" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B139" s="13">
         <v>1</v>
       </c>
@@ -11638,15 +11639,15 @@
         <v>31</v>
       </c>
       <c r="S139" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q139,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T139" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q139,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="140" spans="2:20">
+    <row r="140" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B140" s="13">
         <v>3</v>
       </c>
@@ -11693,15 +11694,15 @@
         <v>31</v>
       </c>
       <c r="S140" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q140,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T140" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q140,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="141" spans="2:20">
+    <row r="141" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B141" s="13">
         <v>2</v>
       </c>
@@ -11748,15 +11749,15 @@
         <v>31</v>
       </c>
       <c r="S141" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q141,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T141" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q141,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="142" spans="2:20">
+    <row r="142" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B142" s="13">
         <v>2</v>
       </c>
@@ -11803,15 +11804,15 @@
         <v>31</v>
       </c>
       <c r="S142" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q142,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T142" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q142,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="143" spans="2:20">
+    <row r="143" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B143" s="13">
         <v>1</v>
       </c>
@@ -11858,15 +11859,15 @@
         <v>31</v>
       </c>
       <c r="S143" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q143,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T143" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q143,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="144" spans="2:20">
+    <row r="144" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B144" s="13">
         <v>1</v>
       </c>
@@ -11913,15 +11914,15 @@
         <v>31</v>
       </c>
       <c r="S144" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q144,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T144" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q144,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B145" s="13">
         <v>3</v>
       </c>
@@ -11968,15 +11969,15 @@
         <v>31</v>
       </c>
       <c r="S145" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q145,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T145" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q145,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B146" s="13">
         <v>2</v>
       </c>
@@ -12023,15 +12024,15 @@
         <v>31</v>
       </c>
       <c r="S146" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q146,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T146" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q146,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B147" s="13">
         <v>3</v>
       </c>
@@ -12078,15 +12079,15 @@
         <v>31</v>
       </c>
       <c r="S147" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q147,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T147" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q147,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B148" s="13">
         <v>2</v>
       </c>
@@ -12133,15 +12134,15 @@
         <v>31</v>
       </c>
       <c r="S148" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q148,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T148" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q148,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B149" s="13">
         <v>1</v>
       </c>
@@ -12188,15 +12189,15 @@
         <v>31</v>
       </c>
       <c r="S149" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q149,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T149" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q149,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B150" s="13">
         <v>2</v>
       </c>
@@ -12243,15 +12244,15 @@
         <v>31</v>
       </c>
       <c r="S150" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q150,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T150" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q150,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B151" s="13">
         <v>1</v>
       </c>
@@ -12298,15 +12299,15 @@
         <v>31</v>
       </c>
       <c r="S151" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q151,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T151" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q151,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B152" s="13">
         <v>3</v>
       </c>
@@ -12347,15 +12348,15 @@
         <v>3</v>
       </c>
       <c r="S152" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q152,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T152" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q152,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B153" s="13">
         <v>1</v>
       </c>
@@ -12396,15 +12397,15 @@
         <v>3</v>
       </c>
       <c r="S153" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q153,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T153" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q153,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B154" s="13">
         <v>2</v>
       </c>
@@ -12445,15 +12446,15 @@
         <v>3</v>
       </c>
       <c r="S154" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q154,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T154" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q154,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B155" s="13">
         <v>2</v>
       </c>
@@ -12494,15 +12495,15 @@
         <v>4</v>
       </c>
       <c r="S155" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q155,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T155" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q155,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B156" s="13">
         <v>3</v>
       </c>
@@ -12543,15 +12544,15 @@
         <v>4</v>
       </c>
       <c r="S156" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q156,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T156" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q156,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="16" thickBot="1">
+    <row r="157" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B157" s="13">
         <v>1</v>
       </c>
@@ -12592,11 +12593,11 @@
         <v>4</v>
       </c>
       <c r="S157" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q157,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="T157" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q157,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
@@ -12652,11 +12653,11 @@
       </c>
       <c r="R158" s="20"/>
       <c r="S158" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q158,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T158" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q158,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U158" s="20"/>
@@ -12717,11 +12718,11 @@
         <v>251</v>
       </c>
       <c r="S159" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q159,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T159" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q159,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -12776,11 +12777,11 @@
         <v>251</v>
       </c>
       <c r="S160" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q160,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T160" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q160,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -12836,11 +12837,11 @@
       </c>
       <c r="R161" s="20"/>
       <c r="S161" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q161,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T161" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q161,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U161" s="20"/>
@@ -12901,11 +12902,11 @@
         <v>251</v>
       </c>
       <c r="S162" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q162,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T162" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q162,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -12960,11 +12961,11 @@
         <v>251</v>
       </c>
       <c r="S163" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q163,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T163" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q163,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13020,11 +13021,11 @@
       </c>
       <c r="R164" s="20"/>
       <c r="S164" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q164,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T164" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q164,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U164" s="20"/>
@@ -13085,11 +13086,11 @@
         <v>251</v>
       </c>
       <c r="S165" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q165,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T165" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q165,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13144,11 +13145,11 @@
         <v>251</v>
       </c>
       <c r="S166" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q166,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T166" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q166,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13204,11 +13205,11 @@
       </c>
       <c r="R167" s="20"/>
       <c r="S167" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q167,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T167" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q167,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U167" s="20"/>
@@ -13269,11 +13270,11 @@
         <v>251</v>
       </c>
       <c r="S168" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q168,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T168" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q168,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13328,11 +13329,11 @@
         <v>251</v>
       </c>
       <c r="S169" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q169,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T169" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q169,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13388,11 +13389,11 @@
       </c>
       <c r="R170" s="20"/>
       <c r="S170" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q170,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T170" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q170,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U170" s="20"/>
@@ -13453,11 +13454,11 @@
         <v>251</v>
       </c>
       <c r="S171" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q171,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T171" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q171,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13512,11 +13513,11 @@
         <v>251</v>
       </c>
       <c r="S172" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q172,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T172" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q172,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13572,11 +13573,11 @@
       </c>
       <c r="R173" s="20"/>
       <c r="S173" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q173,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T173" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q173,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U173" s="20"/>
@@ -13637,11 +13638,11 @@
         <v>251</v>
       </c>
       <c r="S174" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q174,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T174" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q174,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13696,11 +13697,11 @@
         <v>251</v>
       </c>
       <c r="S175" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q175,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T175" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q175,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13756,11 +13757,11 @@
       </c>
       <c r="R176" s="20"/>
       <c r="S176" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q176,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T176" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q176,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U176" s="20"/>
@@ -13821,11 +13822,11 @@
         <v>251</v>
       </c>
       <c r="S177" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q177,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T177" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q177,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13880,11 +13881,11 @@
         <v>251</v>
       </c>
       <c r="S178" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q178,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T178" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q178,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -13940,11 +13941,11 @@
       </c>
       <c r="R179" s="20"/>
       <c r="S179" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q179,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T179" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q179,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U179" s="20"/>
@@ -14005,11 +14006,11 @@
         <v>251</v>
       </c>
       <c r="S180" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q180,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T180" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q180,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14064,11 +14065,11 @@
         <v>251</v>
       </c>
       <c r="S181" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q181,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T181" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q181,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14124,11 +14125,11 @@
       </c>
       <c r="R182" s="20"/>
       <c r="S182" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q182,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T182" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q182,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U182" s="20"/>
@@ -14189,11 +14190,11 @@
         <v>251</v>
       </c>
       <c r="S183" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q183,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T183" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q183,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14248,11 +14249,11 @@
         <v>251</v>
       </c>
       <c r="S184" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q184,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T184" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q184,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14308,11 +14309,11 @@
       </c>
       <c r="R185" s="20"/>
       <c r="S185" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q185,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T185" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q185,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U185" s="20"/>
@@ -14373,11 +14374,11 @@
         <v>251</v>
       </c>
       <c r="S186" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q186,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T186" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q186,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14432,11 +14433,11 @@
         <v>251</v>
       </c>
       <c r="S187" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q187,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T187" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q187,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14492,11 +14493,11 @@
       </c>
       <c r="R188" s="20"/>
       <c r="S188" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q188,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T188" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q188,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U188" s="20"/>
@@ -14557,11 +14558,11 @@
         <v>251</v>
       </c>
       <c r="S189" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q189,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T189" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q189,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14616,11 +14617,11 @@
         <v>251</v>
       </c>
       <c r="S190" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q190,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T190" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q190,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14676,11 +14677,11 @@
       </c>
       <c r="R191" s="20"/>
       <c r="S191" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q191,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T191" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q191,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="U191" s="20"/>
@@ -14741,11 +14742,11 @@
         <v>251</v>
       </c>
       <c r="S192" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q192,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T192" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q192,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14800,11 +14801,11 @@
         <v>251</v>
       </c>
       <c r="S193" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q193,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="T193" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q193,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -14860,11 +14861,11 @@
       </c>
       <c r="R194" s="20"/>
       <c r="S194" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q194,1))</f>
+        <f t="shared" ref="S194:S257" si="6">CONCATENATE("chill",LEFT(Q194,1))</f>
         <v>chill2</v>
       </c>
       <c r="T194" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q194,1))</f>
+        <f t="shared" ref="T194:T257" si="7">CONCATENATE("time",RIGHT(Q194,1))</f>
         <v>time1</v>
       </c>
       <c r="U194" s="20"/>
@@ -14925,11 +14926,11 @@
         <v>251</v>
       </c>
       <c r="S195" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q195,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T195" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q195,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -14984,11 +14985,11 @@
         <v>251</v>
       </c>
       <c r="S196" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q196,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T196" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q196,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15044,11 +15045,11 @@
       </c>
       <c r="R197" s="20"/>
       <c r="S197" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q197,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T197" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q197,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="U197" s="20"/>
@@ -15109,11 +15110,11 @@
         <v>251</v>
       </c>
       <c r="S198" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q198,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T198" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q198,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15168,11 +15169,11 @@
         <v>251</v>
       </c>
       <c r="S199" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q199,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T199" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q199,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15228,11 +15229,11 @@
       </c>
       <c r="R200" s="20"/>
       <c r="S200" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q200,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T200" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q200,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="U200" s="20"/>
@@ -15293,11 +15294,11 @@
         <v>251</v>
       </c>
       <c r="S201" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q201,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T201" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q201,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15352,11 +15353,11 @@
         <v>251</v>
       </c>
       <c r="S202" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q202,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T202" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q202,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15412,11 +15413,11 @@
       </c>
       <c r="R203" s="20"/>
       <c r="S203" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q203,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T203" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q203,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="U203" s="20"/>
@@ -15477,11 +15478,11 @@
         <v>251</v>
       </c>
       <c r="S204" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q204,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T204" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q204,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15536,11 +15537,11 @@
         <v>251</v>
       </c>
       <c r="S205" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q205,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T205" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q205,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -15594,11 +15595,11 @@
       </c>
       <c r="R206" s="18"/>
       <c r="S206" s="18" t="str">
-        <f>CONCATENATE("chill",LEFT(Q206,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T206" s="18" t="str">
-        <f>CONCATENATE("time",RIGHT(Q206,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="U206" s="18"/>
@@ -15655,11 +15656,11 @@
         <v>243</v>
       </c>
       <c r="S207" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q207,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T207" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q207,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -15713,11 +15714,11 @@
       </c>
       <c r="R208" s="18"/>
       <c r="S208" s="18" t="str">
-        <f>CONCATENATE("chill",LEFT(Q208,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T208" s="18" t="str">
-        <f>CONCATENATE("time",RIGHT(Q208,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="U208" s="18"/>
@@ -15774,11 +15775,11 @@
         <v>243</v>
       </c>
       <c r="S209" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q209,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T209" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q209,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -15829,11 +15830,11 @@
         <v>243</v>
       </c>
       <c r="S210" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q210,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T210" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q210,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -15884,11 +15885,11 @@
         <v>243</v>
       </c>
       <c r="S211" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q211,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T211" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q211,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -15939,11 +15940,11 @@
         <v>243</v>
       </c>
       <c r="S212" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q212,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T212" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q212,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -15994,11 +15995,11 @@
         <v>243</v>
       </c>
       <c r="S213" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q213,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T213" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q213,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16054,11 +16055,11 @@
         <v>6</v>
       </c>
       <c r="S214" s="22" t="str">
-        <f>CONCATENATE("chill",LEFT(Q214,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T214" s="22" t="str">
-        <f>CONCATENATE("time",RIGHT(Q214,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="U214" s="22"/>
@@ -16115,11 +16116,11 @@
         <v>243</v>
       </c>
       <c r="S215" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q215,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T215" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q215,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16170,11 +16171,11 @@
         <v>243</v>
       </c>
       <c r="S216" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q216,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T216" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q216,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16225,11 +16226,11 @@
         <v>243</v>
       </c>
       <c r="S217" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q217,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T217" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q217,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16280,11 +16281,11 @@
         <v>243</v>
       </c>
       <c r="S218" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q218,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T218" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q218,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16335,11 +16336,11 @@
         <v>243</v>
       </c>
       <c r="S219" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q219,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T219" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q219,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16390,11 +16391,11 @@
         <v>243</v>
       </c>
       <c r="S220" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q220,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T220" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q220,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16445,11 +16446,11 @@
         <v>243</v>
       </c>
       <c r="S221" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q221,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T221" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q221,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16500,11 +16501,11 @@
         <v>243</v>
       </c>
       <c r="S222" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q222,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T222" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q222,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16555,11 +16556,11 @@
         <v>243</v>
       </c>
       <c r="S223" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q223,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T223" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q223,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16610,11 +16611,11 @@
         <v>243</v>
       </c>
       <c r="S224" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q224,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T224" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q224,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16665,11 +16666,11 @@
         <v>243</v>
       </c>
       <c r="S225" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q225,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T225" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q225,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16725,11 +16726,11 @@
         <v>5</v>
       </c>
       <c r="S226" s="22" t="str">
-        <f>CONCATENATE("chill",LEFT(Q226,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T226" s="22" t="str">
-        <f>CONCATENATE("time",RIGHT(Q226,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="U226" s="22"/>
@@ -16790,11 +16791,11 @@
         <v>6</v>
       </c>
       <c r="S227" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q227,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T227" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q227,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16845,11 +16846,11 @@
         <v>243</v>
       </c>
       <c r="S228" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q228,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T228" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q228,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16900,11 +16901,11 @@
         <v>243</v>
       </c>
       <c r="S229" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q229,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T229" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q229,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -16955,11 +16956,11 @@
         <v>243</v>
       </c>
       <c r="S230" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q230,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T230" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q230,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17010,11 +17011,11 @@
         <v>243</v>
       </c>
       <c r="S231" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q231,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T231" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q231,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17065,11 +17066,11 @@
         <v>243</v>
       </c>
       <c r="S232" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q232,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T232" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q232,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17120,11 +17121,11 @@
         <v>243</v>
       </c>
       <c r="S233" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q233,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T233" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q233,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17175,11 +17176,11 @@
         <v>243</v>
       </c>
       <c r="S234" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q234,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T234" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q234,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17230,11 +17231,11 @@
         <v>243</v>
       </c>
       <c r="S235" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q235,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T235" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q235,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17285,11 +17286,11 @@
         <v>243</v>
       </c>
       <c r="S236" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q236,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T236" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q236,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17340,11 +17341,11 @@
         <v>243</v>
       </c>
       <c r="S237" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q237,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T237" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q237,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17395,11 +17396,11 @@
         <v>243</v>
       </c>
       <c r="S238" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q238,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T238" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q238,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17450,11 +17451,11 @@
         <v>243</v>
       </c>
       <c r="S239" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q239,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T239" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q239,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17505,11 +17506,11 @@
         <v>243</v>
       </c>
       <c r="S240" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q240,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T240" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q240,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17560,11 +17561,11 @@
         <v>243</v>
       </c>
       <c r="S241" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q241,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T241" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q241,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17615,11 +17616,11 @@
         <v>243</v>
       </c>
       <c r="S242" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q242,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T242" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q242,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17670,11 +17671,11 @@
         <v>243</v>
       </c>
       <c r="S243" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q243,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T243" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q243,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17725,11 +17726,11 @@
         <v>243</v>
       </c>
       <c r="S244" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q244,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T244" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q244,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17780,11 +17781,11 @@
         <v>243</v>
       </c>
       <c r="S245" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q245,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T245" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q245,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17835,11 +17836,11 @@
         <v>243</v>
       </c>
       <c r="S246" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q246,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T246" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q246,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17890,11 +17891,11 @@
         <v>243</v>
       </c>
       <c r="S247" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q247,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T247" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q247,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -17945,11 +17946,11 @@
         <v>243</v>
       </c>
       <c r="S248" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q248,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T248" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q248,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18000,11 +18001,11 @@
         <v>243</v>
       </c>
       <c r="S249" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q249,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T249" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q249,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18055,11 +18056,11 @@
         <v>243</v>
       </c>
       <c r="S250" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q250,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T250" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q250,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18110,11 +18111,11 @@
         <v>243</v>
       </c>
       <c r="S251" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q251,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T251" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q251,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18165,11 +18166,11 @@
         <v>243</v>
       </c>
       <c r="S252" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q252,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T252" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q252,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18220,11 +18221,11 @@
         <v>243</v>
       </c>
       <c r="S253" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q253,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T253" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q253,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18275,11 +18276,11 @@
         <v>243</v>
       </c>
       <c r="S254" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q254,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T254" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q254,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18330,11 +18331,11 @@
         <v>243</v>
       </c>
       <c r="S255" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q255,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T255" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q255,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18385,11 +18386,11 @@
         <v>243</v>
       </c>
       <c r="S256" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q256,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T256" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q256,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18440,11 +18441,11 @@
         <v>243</v>
       </c>
       <c r="S257" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q257,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="T257" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q257,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -18495,11 +18496,11 @@
         <v>243</v>
       </c>
       <c r="S258" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q258,1))</f>
+        <f t="shared" ref="S258:S321" si="8">CONCATENATE("chill",LEFT(Q258,1))</f>
         <v>chill2</v>
       </c>
       <c r="T258" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q258,1))</f>
+        <f t="shared" ref="T258:T321" si="9">CONCATENATE("time",RIGHT(Q258,1))</f>
         <v>time2</v>
       </c>
     </row>
@@ -18550,15 +18551,15 @@
         <v>243</v>
       </c>
       <c r="S259" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q259,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T259" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q259,1))</f>
+        <f t="shared" si="9"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" ht="16" thickBot="1">
       <c r="A260" s="12"/>
       <c r="B260" s="12">
         <v>1</v>
@@ -18609,15 +18610,15 @@
         <v>5</v>
       </c>
       <c r="S260" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q260,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T260" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q260,1))</f>
+        <f t="shared" si="9"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B261" s="12">
         <v>1</v>
       </c>
@@ -18667,15 +18668,15 @@
         <v>7</v>
       </c>
       <c r="S261" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q261,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T261" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q261,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B262" s="12">
         <v>1</v>
       </c>
@@ -18722,15 +18723,15 @@
         <v>245</v>
       </c>
       <c r="S262" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q262,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T262" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q262,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B263" s="12">
         <v>2</v>
       </c>
@@ -18777,15 +18778,15 @@
         <v>245</v>
       </c>
       <c r="S263" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q263,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T263" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q263,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B264" s="12">
         <v>3</v>
       </c>
@@ -18832,15 +18833,15 @@
         <v>245</v>
       </c>
       <c r="S264" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q264,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T264" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q264,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B265" s="12">
         <v>1</v>
       </c>
@@ -18887,15 +18888,15 @@
         <v>245</v>
       </c>
       <c r="S265" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q265,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T265" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q265,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B266" s="12">
         <v>2</v>
       </c>
@@ -18942,15 +18943,15 @@
         <v>245</v>
       </c>
       <c r="S266" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q266,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T266" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q266,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B267" s="12">
         <v>3</v>
       </c>
@@ -18997,15 +18998,15 @@
         <v>245</v>
       </c>
       <c r="S267" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q267,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T267" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q267,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B268" s="12">
         <v>1</v>
       </c>
@@ -19052,15 +19053,15 @@
         <v>245</v>
       </c>
       <c r="S268" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q268,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T268" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q268,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B269" s="12">
         <v>2</v>
       </c>
@@ -19107,15 +19108,15 @@
         <v>245</v>
       </c>
       <c r="S269" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q269,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T269" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q269,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B270" s="12">
         <v>3</v>
       </c>
@@ -19162,15 +19163,15 @@
         <v>245</v>
       </c>
       <c r="S270" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q270,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T270" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q270,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B271" s="12">
         <v>2</v>
       </c>
@@ -19217,15 +19218,15 @@
         <v>245</v>
       </c>
       <c r="S271" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q271,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T271" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q271,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" ht="16" hidden="1" thickBot="1">
       <c r="B272" s="12">
         <v>1</v>
       </c>
@@ -19272,15 +19273,15 @@
         <v>245</v>
       </c>
       <c r="S272" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q272,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T272" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q272,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="273" spans="2:20">
+    <row r="273" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B273" s="12">
         <v>1</v>
       </c>
@@ -19327,15 +19328,15 @@
         <v>245</v>
       </c>
       <c r="S273" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q273,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T273" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q273,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="274" spans="2:20">
+    <row r="274" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B274" s="12">
         <v>3</v>
       </c>
@@ -19382,15 +19383,15 @@
         <v>245</v>
       </c>
       <c r="S274" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q274,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T274" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q274,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="275" spans="2:20">
+    <row r="275" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B275" s="12">
         <v>2</v>
       </c>
@@ -19437,15 +19438,15 @@
         <v>245</v>
       </c>
       <c r="S275" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q275,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T275" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q275,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="276" spans="2:20">
+    <row r="276" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B276" s="12">
         <v>1</v>
       </c>
@@ -19492,15 +19493,15 @@
         <v>245</v>
       </c>
       <c r="S276" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q276,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T276" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q276,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="277" spans="2:20">
+    <row r="277" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B277" s="12">
         <v>2</v>
       </c>
@@ -19547,15 +19548,15 @@
         <v>245</v>
       </c>
       <c r="S277" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q277,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T277" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q277,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="278" spans="2:20">
+    <row r="278" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B278" s="12">
         <v>3</v>
       </c>
@@ -19602,15 +19603,15 @@
         <v>245</v>
       </c>
       <c r="S278" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q278,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T278" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q278,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="279" spans="2:20">
+    <row r="279" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B279" s="13">
         <v>3</v>
       </c>
@@ -19660,15 +19661,15 @@
         <v>7</v>
       </c>
       <c r="S279" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q279,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T279" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q279,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="280" spans="2:20">
+    <row r="280" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B280" s="12">
         <v>1</v>
       </c>
@@ -19715,15 +19716,15 @@
         <v>245</v>
       </c>
       <c r="S280" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q280,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T280" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q280,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="281" spans="2:20">
+    <row r="281" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B281" s="12">
         <v>3</v>
       </c>
@@ -19770,15 +19771,15 @@
         <v>245</v>
       </c>
       <c r="S281" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q281,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T281" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q281,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="282" spans="2:20">
+    <row r="282" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B282" s="12">
         <v>2</v>
       </c>
@@ -19825,15 +19826,15 @@
         <v>245</v>
       </c>
       <c r="S282" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q282,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T282" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q282,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="283" spans="2:20">
+    <row r="283" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B283" s="13">
         <v>1</v>
       </c>
@@ -19880,15 +19881,15 @@
         <v>245</v>
       </c>
       <c r="S283" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q283,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T283" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q283,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="284" spans="2:20">
+    <row r="284" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B284" s="12">
         <v>3</v>
       </c>
@@ -19935,15 +19936,15 @@
         <v>245</v>
       </c>
       <c r="S284" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q284,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T284" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q284,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="285" spans="2:20">
+    <row r="285" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B285" s="12">
         <v>2</v>
       </c>
@@ -19990,15 +19991,15 @@
         <v>245</v>
       </c>
       <c r="S285" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q285,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T285" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q285,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="286" spans="2:20">
+    <row r="286" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B286" s="12">
         <v>1</v>
       </c>
@@ -20045,15 +20046,15 @@
         <v>245</v>
       </c>
       <c r="S286" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q286,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T286" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q286,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="287" spans="2:20">
+    <row r="287" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B287" s="12">
         <v>3</v>
       </c>
@@ -20100,15 +20101,15 @@
         <v>245</v>
       </c>
       <c r="S287" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q287,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T287" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q287,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="288" spans="2:20">
+    <row r="288" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B288" s="12">
         <v>2</v>
       </c>
@@ -20155,15 +20156,15 @@
         <v>245</v>
       </c>
       <c r="S288" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q288,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T288" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q288,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="289" spans="2:20">
+    <row r="289" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B289" s="12">
         <v>1</v>
       </c>
@@ -20210,15 +20211,15 @@
         <v>245</v>
       </c>
       <c r="S289" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q289,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T289" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q289,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="290" spans="2:20">
+    <row r="290" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B290" s="12">
         <v>2</v>
       </c>
@@ -20265,15 +20266,15 @@
         <v>245</v>
       </c>
       <c r="S290" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q290,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T290" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q290,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="291" spans="2:20">
+    <row r="291" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B291" s="12">
         <v>3</v>
       </c>
@@ -20320,15 +20321,15 @@
         <v>245</v>
       </c>
       <c r="S291" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q291,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T291" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q291,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="292" spans="2:20">
+    <row r="292" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B292" s="12">
         <v>1</v>
       </c>
@@ -20375,15 +20376,15 @@
         <v>245</v>
       </c>
       <c r="S292" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q292,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T292" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q292,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="293" spans="2:20">
+    <row r="293" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B293" s="12">
         <v>1</v>
       </c>
@@ -20430,15 +20431,15 @@
         <v>245</v>
       </c>
       <c r="S293" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q293,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T293" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q293,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="294" spans="2:20">
+    <row r="294" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B294" s="12">
         <v>2</v>
       </c>
@@ -20485,15 +20486,15 @@
         <v>245</v>
       </c>
       <c r="S294" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q294,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T294" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q294,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="295" spans="2:20">
+    <row r="295" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B295" s="12">
         <v>3</v>
       </c>
@@ -20540,15 +20541,15 @@
         <v>245</v>
       </c>
       <c r="S295" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q295,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T295" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q295,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="296" spans="2:20">
+    <row r="296" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B296" s="13">
         <v>2</v>
       </c>
@@ -20598,15 +20599,15 @@
         <v>7</v>
       </c>
       <c r="S296" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q296,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T296" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q296,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="297" spans="2:20">
+    <row r="297" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B297" s="12">
         <v>1</v>
       </c>
@@ -20653,15 +20654,15 @@
         <v>245</v>
       </c>
       <c r="S297" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q297,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T297" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q297,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="298" spans="2:20">
+    <row r="298" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B298" s="12">
         <v>3</v>
       </c>
@@ -20708,15 +20709,15 @@
         <v>245</v>
       </c>
       <c r="S298" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q298,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T298" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q298,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="299" spans="2:20">
+    <row r="299" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B299" s="12">
         <v>2</v>
       </c>
@@ -20763,15 +20764,15 @@
         <v>245</v>
       </c>
       <c r="S299" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q299,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T299" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q299,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="300" spans="2:20">
+    <row r="300" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B300" s="12">
         <v>2</v>
       </c>
@@ -20818,15 +20819,15 @@
         <v>245</v>
       </c>
       <c r="S300" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q300,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T300" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q300,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="301" spans="2:20">
+    <row r="301" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B301" s="12">
         <v>3</v>
       </c>
@@ -20873,15 +20874,15 @@
         <v>245</v>
       </c>
       <c r="S301" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q301,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T301" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q301,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="302" spans="2:20">
+    <row r="302" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B302" s="12">
         <v>1</v>
       </c>
@@ -20928,15 +20929,15 @@
         <v>245</v>
       </c>
       <c r="S302" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q302,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T302" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q302,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="303" spans="2:20">
+    <row r="303" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B303" s="12">
         <v>3</v>
       </c>
@@ -20983,15 +20984,15 @@
         <v>245</v>
       </c>
       <c r="S303" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q303,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T303" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q303,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="304" spans="2:20">
+    <row r="304" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="B304" s="12">
         <v>1</v>
       </c>
@@ -21038,15 +21039,15 @@
         <v>245</v>
       </c>
       <c r="S304" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q304,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T304" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q304,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B305" s="12">
         <v>2</v>
       </c>
@@ -21093,15 +21094,15 @@
         <v>245</v>
       </c>
       <c r="S305" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q305,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T305" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q305,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B306" s="12">
         <v>2</v>
       </c>
@@ -21148,15 +21149,15 @@
         <v>245</v>
       </c>
       <c r="S306" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q306,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T306" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q306,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B307" s="12">
         <v>1</v>
       </c>
@@ -21203,15 +21204,15 @@
         <v>245</v>
       </c>
       <c r="S307" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q307,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T307" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q307,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B308" s="12">
         <v>3</v>
       </c>
@@ -21258,15 +21259,15 @@
         <v>245</v>
       </c>
       <c r="S308" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q308,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T308" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q308,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B309" s="12">
         <v>1</v>
       </c>
@@ -21313,15 +21314,15 @@
         <v>245</v>
       </c>
       <c r="S309" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q309,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T309" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q309,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B310" s="12">
         <v>2</v>
       </c>
@@ -21368,15 +21369,15 @@
         <v>245</v>
       </c>
       <c r="S310" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q310,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T310" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q310,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B311" s="12">
         <v>1</v>
       </c>
@@ -21423,15 +21424,15 @@
         <v>245</v>
       </c>
       <c r="S311" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q311,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T311" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q311,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B312" s="12">
         <v>3</v>
       </c>
@@ -21478,15 +21479,15 @@
         <v>245</v>
       </c>
       <c r="S312" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q312,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T312" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q312,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="16" thickBot="1">
+    <row r="313" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="B313" s="12">
         <v>2</v>
       </c>
@@ -21533,11 +21534,11 @@
         <v>245</v>
       </c>
       <c r="S313" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q313,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="T313" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q313,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -21593,11 +21594,11 @@
       </c>
       <c r="R314" s="20"/>
       <c r="S314" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q314,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T314" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q314,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="U314" s="20"/>
@@ -21658,11 +21659,11 @@
         <v>563</v>
       </c>
       <c r="S315" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q315,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T315" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q315,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -21717,11 +21718,11 @@
         <v>563</v>
       </c>
       <c r="S316" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q316,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T316" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q316,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -21777,11 +21778,11 @@
       </c>
       <c r="R317" s="20"/>
       <c r="S317" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q317,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T317" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q317,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="U317" s="20"/>
@@ -21842,11 +21843,11 @@
         <v>563</v>
       </c>
       <c r="S318" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q318,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T318" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q318,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -21901,11 +21902,11 @@
         <v>563</v>
       </c>
       <c r="S319" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q319,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T319" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q319,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -21961,11 +21962,11 @@
       </c>
       <c r="R320" s="20"/>
       <c r="S320" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q320,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T320" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q320,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="U320" s="20"/>
@@ -22026,11 +22027,11 @@
         <v>563</v>
       </c>
       <c r="S321" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q321,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="T321" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q321,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -22085,11 +22086,11 @@
         <v>563</v>
       </c>
       <c r="S322" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q322,1))</f>
+        <f t="shared" ref="S322:S385" si="10">CONCATENATE("chill",LEFT(Q322,1))</f>
         <v>chill4</v>
       </c>
       <c r="T322" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q322,1))</f>
+        <f t="shared" ref="T322:T385" si="11">CONCATENATE("time",RIGHT(Q322,1))</f>
         <v>time1</v>
       </c>
     </row>
@@ -22145,11 +22146,11 @@
       </c>
       <c r="R323" s="20"/>
       <c r="S323" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q323,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T323" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q323,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U323" s="20"/>
@@ -22210,11 +22211,11 @@
         <v>563</v>
       </c>
       <c r="S324" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q324,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T324" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q324,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22269,11 +22270,11 @@
         <v>563</v>
       </c>
       <c r="S325" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q325,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T325" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q325,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22329,11 +22330,11 @@
       </c>
       <c r="R326" s="20"/>
       <c r="S326" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q326,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T326" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q326,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U326" s="20"/>
@@ -22394,11 +22395,11 @@
         <v>563</v>
       </c>
       <c r="S327" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q327,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T327" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q327,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22453,11 +22454,11 @@
         <v>563</v>
       </c>
       <c r="S328" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q328,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T328" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q328,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22513,11 +22514,11 @@
       </c>
       <c r="R329" s="20"/>
       <c r="S329" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q329,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T329" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q329,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U329" s="20"/>
@@ -22578,11 +22579,11 @@
         <v>563</v>
       </c>
       <c r="S330" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q330,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T330" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q330,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22637,11 +22638,11 @@
         <v>563</v>
       </c>
       <c r="S331" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q331,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T331" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q331,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22695,11 +22696,11 @@
       </c>
       <c r="R332" s="20"/>
       <c r="S332" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q332,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T332" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q332,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U332" s="20"/>
@@ -22757,11 +22758,11 @@
         <v>563</v>
       </c>
       <c r="S333" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q333,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T333" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q333,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22813,11 +22814,11 @@
         <v>563</v>
       </c>
       <c r="S334" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q334,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T334" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q334,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22873,11 +22874,11 @@
       </c>
       <c r="R335" s="20"/>
       <c r="S335" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q335,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T335" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q335,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U335" s="20"/>
@@ -22938,11 +22939,11 @@
         <v>563</v>
       </c>
       <c r="S336" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q336,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T336" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q336,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -22997,11 +22998,11 @@
         <v>563</v>
       </c>
       <c r="S337" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q337,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T337" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q337,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23057,11 +23058,11 @@
       </c>
       <c r="R338" s="20"/>
       <c r="S338" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q338,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T338" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q338,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U338" s="20"/>
@@ -23122,11 +23123,11 @@
         <v>563</v>
       </c>
       <c r="S339" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q339,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T339" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q339,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23181,11 +23182,11 @@
         <v>563</v>
       </c>
       <c r="S340" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q340,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T340" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q340,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23241,11 +23242,11 @@
       </c>
       <c r="R341" s="20"/>
       <c r="S341" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q341,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T341" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q341,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U341" s="20"/>
@@ -23306,11 +23307,11 @@
         <v>563</v>
       </c>
       <c r="S342" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q342,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T342" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q342,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23365,11 +23366,11 @@
         <v>563</v>
       </c>
       <c r="S343" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q343,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T343" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q343,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23425,11 +23426,11 @@
       </c>
       <c r="R344" s="20"/>
       <c r="S344" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q344,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T344" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q344,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U344" s="20"/>
@@ -23490,11 +23491,11 @@
         <v>563</v>
       </c>
       <c r="S345" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q345,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T345" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q345,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23549,11 +23550,11 @@
         <v>563</v>
       </c>
       <c r="S346" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q346,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T346" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q346,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23609,11 +23610,11 @@
       </c>
       <c r="R347" s="20"/>
       <c r="S347" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q347,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T347" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q347,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U347" s="20"/>
@@ -23674,11 +23675,11 @@
         <v>563</v>
       </c>
       <c r="S348" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q348,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T348" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q348,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23733,11 +23734,11 @@
         <v>563</v>
       </c>
       <c r="S349" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q349,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T349" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q349,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23793,11 +23794,11 @@
       </c>
       <c r="R350" s="20"/>
       <c r="S350" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q350,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T350" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q350,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U350" s="20"/>
@@ -23858,11 +23859,11 @@
         <v>563</v>
       </c>
       <c r="S351" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q351,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T351" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q351,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23917,11 +23918,11 @@
         <v>563</v>
       </c>
       <c r="S352" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q352,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T352" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q352,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -23977,11 +23978,11 @@
       </c>
       <c r="R353" s="20"/>
       <c r="S353" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q353,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T353" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q353,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U353" s="20"/>
@@ -24042,11 +24043,11 @@
         <v>563</v>
       </c>
       <c r="S354" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q354,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T354" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q354,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24101,11 +24102,11 @@
         <v>563</v>
       </c>
       <c r="S355" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q355,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T355" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q355,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24161,11 +24162,11 @@
       </c>
       <c r="R356" s="20"/>
       <c r="S356" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q356,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T356" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q356,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U356" s="20"/>
@@ -24226,11 +24227,11 @@
         <v>563</v>
       </c>
       <c r="S357" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q357,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T357" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q357,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24285,11 +24286,11 @@
         <v>563</v>
       </c>
       <c r="S358" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q358,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T358" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q358,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24345,11 +24346,11 @@
       </c>
       <c r="R359" s="20"/>
       <c r="S359" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q359,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T359" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q359,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U359" s="20"/>
@@ -24410,11 +24411,11 @@
         <v>563</v>
       </c>
       <c r="S360" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q360,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T360" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q360,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24469,11 +24470,11 @@
         <v>563</v>
       </c>
       <c r="S361" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q361,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T361" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q361,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24529,11 +24530,11 @@
       </c>
       <c r="R362" s="20"/>
       <c r="S362" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q362,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T362" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q362,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U362" s="20"/>
@@ -24594,11 +24595,11 @@
         <v>563</v>
       </c>
       <c r="S363" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q363,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T363" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q363,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24653,11 +24654,11 @@
         <v>563</v>
       </c>
       <c r="S364" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q364,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T364" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q364,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24713,11 +24714,11 @@
       </c>
       <c r="R365" s="20"/>
       <c r="S365" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q365,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T365" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q365,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U365" s="20"/>
@@ -24778,11 +24779,11 @@
         <v>563</v>
       </c>
       <c r="S366" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q366,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T366" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q366,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24837,11 +24838,11 @@
         <v>563</v>
       </c>
       <c r="S367" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q367,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T367" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q367,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -24895,11 +24896,11 @@
       </c>
       <c r="R368" s="20"/>
       <c r="S368" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q368,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T368" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q368,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U368" s="20"/>
@@ -24957,11 +24958,11 @@
         <v>563</v>
       </c>
       <c r="S369" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q369,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T369" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q369,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -25013,11 +25014,11 @@
         <v>563</v>
       </c>
       <c r="S370" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q370,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T370" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q370,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -25073,11 +25074,11 @@
       </c>
       <c r="R371" s="20"/>
       <c r="S371" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q371,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T371" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q371,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="U371" s="20"/>
@@ -25138,11 +25139,11 @@
         <v>563</v>
       </c>
       <c r="S372" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q372,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T372" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q372,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -25197,11 +25198,11 @@
         <v>563</v>
       </c>
       <c r="S373" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q373,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T373" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q373,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -25255,11 +25256,11 @@
         <v>10</v>
       </c>
       <c r="S374" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q374,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T374" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q374,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25301,11 +25302,11 @@
         <v>569</v>
       </c>
       <c r="S375" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q375,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T375" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q375,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25347,11 +25348,11 @@
         <v>569</v>
       </c>
       <c r="S376" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q376,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T376" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q376,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25393,11 +25394,11 @@
         <v>569</v>
       </c>
       <c r="S377" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q377,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T377" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q377,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25442,11 +25443,11 @@
         <v>11</v>
       </c>
       <c r="S378" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q378,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T378" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q378,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25488,11 +25489,11 @@
         <v>569</v>
       </c>
       <c r="S379" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q379,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T379" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q379,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25534,11 +25535,11 @@
         <v>569</v>
       </c>
       <c r="S380" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q380,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T380" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q380,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25580,11 +25581,11 @@
         <v>569</v>
       </c>
       <c r="S381" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q381,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T381" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q381,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25635,11 +25636,11 @@
         <v>569</v>
       </c>
       <c r="S382" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q382,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T382" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q382,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25690,11 +25691,11 @@
         <v>569</v>
       </c>
       <c r="S383" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q383,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T383" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q383,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25745,11 +25746,11 @@
         <v>569</v>
       </c>
       <c r="S384" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q384,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T384" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q384,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25791,11 +25792,11 @@
         <v>569</v>
       </c>
       <c r="S385" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q385,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="T385" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q385,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -25837,11 +25838,11 @@
         <v>569</v>
       </c>
       <c r="S386" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q386,1))</f>
+        <f t="shared" ref="S386:S449" si="12">CONCATENATE("chill",LEFT(Q386,1))</f>
         <v>chill4</v>
       </c>
       <c r="T386" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q386,1))</f>
+        <f t="shared" ref="T386:T449" si="13">CONCATENATE("time",RIGHT(Q386,1))</f>
         <v>time2</v>
       </c>
     </row>
@@ -25883,11 +25884,11 @@
         <v>569</v>
       </c>
       <c r="S387" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q387,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T387" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q387,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -25932,11 +25933,11 @@
         <v>8</v>
       </c>
       <c r="S388" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q388,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T388" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q388,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -25981,11 +25982,11 @@
         <v>9</v>
       </c>
       <c r="S389" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q389,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T389" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q389,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26030,11 +26031,11 @@
         <v>8</v>
       </c>
       <c r="S390" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q390,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T390" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q390,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26076,11 +26077,11 @@
         <v>569</v>
       </c>
       <c r="S391" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q391,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T391" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q391,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26122,11 +26123,11 @@
         <v>569</v>
       </c>
       <c r="S392" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q392,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T392" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q392,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26168,11 +26169,11 @@
         <v>569</v>
       </c>
       <c r="S393" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q393,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T393" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q393,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26214,11 +26215,11 @@
         <v>569</v>
       </c>
       <c r="S394" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q394,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T394" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q394,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26260,11 +26261,11 @@
         <v>569</v>
       </c>
       <c r="S395" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q395,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T395" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q395,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26306,11 +26307,11 @@
         <v>569</v>
       </c>
       <c r="S396" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q396,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T396" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q396,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26352,11 +26353,11 @@
         <v>569</v>
       </c>
       <c r="S397" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q397,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T397" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q397,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26398,11 +26399,11 @@
         <v>569</v>
       </c>
       <c r="S398" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q398,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T398" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q398,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26444,11 +26445,11 @@
         <v>569</v>
       </c>
       <c r="S399" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q399,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T399" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q399,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26490,11 +26491,11 @@
         <v>569</v>
       </c>
       <c r="S400" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q400,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T400" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q400,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26536,11 +26537,11 @@
         <v>569</v>
       </c>
       <c r="S401" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q401,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T401" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q401,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26582,11 +26583,11 @@
         <v>569</v>
       </c>
       <c r="S402" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q402,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T402" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q402,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26637,11 +26638,11 @@
         <v>569</v>
       </c>
       <c r="S403" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q403,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T403" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q403,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26692,11 +26693,11 @@
         <v>569</v>
       </c>
       <c r="S404" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q404,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T404" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q404,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26747,11 +26748,11 @@
         <v>569</v>
       </c>
       <c r="S405" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q405,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T405" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q405,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26796,11 +26797,11 @@
         <v>11</v>
       </c>
       <c r="S406" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q406,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T406" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q406,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26845,11 +26846,11 @@
         <v>8</v>
       </c>
       <c r="S407" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q407,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T407" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q407,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26894,11 +26895,11 @@
         <v>9</v>
       </c>
       <c r="S408" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q408,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T408" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q408,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26940,11 +26941,11 @@
         <v>569</v>
       </c>
       <c r="S409" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q409,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T409" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q409,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -26986,11 +26987,11 @@
         <v>569</v>
       </c>
       <c r="S410" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q410,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T410" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q410,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27032,11 +27033,11 @@
         <v>569</v>
       </c>
       <c r="S411" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q411,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T411" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q411,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27078,11 +27079,11 @@
         <v>569</v>
       </c>
       <c r="S412" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q412,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T412" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q412,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27124,11 +27125,11 @@
         <v>569</v>
       </c>
       <c r="S413" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q413,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T413" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q413,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27170,11 +27171,11 @@
         <v>569</v>
       </c>
       <c r="S414" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q414,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T414" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q414,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27228,11 +27229,11 @@
         <v>10</v>
       </c>
       <c r="S415" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q415,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T415" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q415,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27277,11 +27278,11 @@
         <v>11</v>
       </c>
       <c r="S416" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q416,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T416" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q416,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27326,11 +27327,11 @@
         <v>9</v>
       </c>
       <c r="S417" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q417,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T417" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q417,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27384,11 +27385,11 @@
         <v>10</v>
       </c>
       <c r="S418" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q418,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T418" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q418,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27430,11 +27431,11 @@
         <v>569</v>
       </c>
       <c r="S419" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q419,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T419" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q419,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -27476,15 +27477,15 @@
         <v>569</v>
       </c>
       <c r="S420" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q420,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T420" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q420,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="421" spans="2:20">
+    <row r="421" spans="2:20" ht="16" thickBot="1">
       <c r="C421" s="13" t="s">
         <v>719</v>
       </c>
@@ -27522,15 +27523,15 @@
         <v>569</v>
       </c>
       <c r="S421" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q421,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T421" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q421,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="422" spans="2:20">
+    <row r="422" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C422" s="13" t="s">
         <v>567</v>
       </c>
@@ -27568,15 +27569,15 @@
         <v>565</v>
       </c>
       <c r="S422" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q422,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T422" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q422,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="423" spans="2:20">
+    <row r="423" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C423" s="13" t="s">
         <v>570</v>
       </c>
@@ -27614,15 +27615,15 @@
         <v>565</v>
       </c>
       <c r="S423" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q423,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T423" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q423,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="424" spans="2:20">
+    <row r="424" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C424" s="13" t="s">
         <v>575</v>
       </c>
@@ -27660,15 +27661,15 @@
         <v>565</v>
       </c>
       <c r="S424" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q424,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T424" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q424,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="425" spans="2:20">
+    <row r="425" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C425" s="13" t="s">
         <v>574</v>
       </c>
@@ -27706,15 +27707,15 @@
         <v>565</v>
       </c>
       <c r="S425" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q425,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T425" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q425,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="426" spans="2:20">
+    <row r="426" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C426" s="13" t="s">
         <v>579</v>
       </c>
@@ -27752,15 +27753,15 @@
         <v>565</v>
       </c>
       <c r="S426" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q426,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T426" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q426,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="427" spans="2:20">
+    <row r="427" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C427" s="13" t="s">
         <v>578</v>
       </c>
@@ -27798,15 +27799,15 @@
         <v>565</v>
       </c>
       <c r="S427" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q427,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T427" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q427,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="428" spans="2:20">
+    <row r="428" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C428" s="13" t="s">
         <v>577</v>
       </c>
@@ -27844,15 +27845,15 @@
         <v>565</v>
       </c>
       <c r="S428" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q428,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T428" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q428,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="429" spans="2:20">
+    <row r="429" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C429" s="13" t="s">
         <v>597</v>
       </c>
@@ -27890,15 +27891,15 @@
         <v>565</v>
       </c>
       <c r="S429" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q429,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T429" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q429,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="430" spans="2:20">
+    <row r="430" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C430" s="13" t="s">
         <v>596</v>
       </c>
@@ -27936,15 +27937,15 @@
         <v>565</v>
       </c>
       <c r="S430" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q430,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T430" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q430,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="431" spans="2:20">
+    <row r="431" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C431" s="13" t="s">
         <v>595</v>
       </c>
@@ -27982,15 +27983,15 @@
         <v>565</v>
       </c>
       <c r="S431" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q431,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T431" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q431,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="432" spans="2:20">
+    <row r="432" spans="2:20" ht="16" hidden="1" thickBot="1">
       <c r="C432" s="13" t="s">
         <v>606</v>
       </c>
@@ -28028,15 +28029,15 @@
         <v>565</v>
       </c>
       <c r="S432" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q432,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T432" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q432,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="433" spans="3:20">
+    <row r="433" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C433" s="13" t="s">
         <v>604</v>
       </c>
@@ -28074,15 +28075,15 @@
         <v>565</v>
       </c>
       <c r="S433" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q433,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T433" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q433,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="434" spans="3:20">
+    <row r="434" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C434" s="13" t="s">
         <v>605</v>
       </c>
@@ -28120,15 +28121,15 @@
         <v>565</v>
       </c>
       <c r="S434" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q434,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T434" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q434,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="435" spans="3:20">
+    <row r="435" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C435" s="13" t="s">
         <v>612</v>
       </c>
@@ -28166,15 +28167,15 @@
         <v>565</v>
       </c>
       <c r="S435" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q435,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T435" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q435,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="436" spans="3:20">
+    <row r="436" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C436" s="13" t="s">
         <v>611</v>
       </c>
@@ -28212,15 +28213,15 @@
         <v>565</v>
       </c>
       <c r="S436" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q436,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T436" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q436,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="437" spans="3:20">
+    <row r="437" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C437" s="13" t="s">
         <v>620</v>
       </c>
@@ -28258,15 +28259,15 @@
         <v>565</v>
       </c>
       <c r="S437" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q437,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T437" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q437,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="438" spans="3:20">
+    <row r="438" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C438" s="13" t="s">
         <v>619</v>
       </c>
@@ -28304,15 +28305,15 @@
         <v>565</v>
       </c>
       <c r="S438" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q438,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T438" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q438,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="439" spans="3:20">
+    <row r="439" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C439" s="13" t="s">
         <v>622</v>
       </c>
@@ -28350,15 +28351,15 @@
         <v>565</v>
       </c>
       <c r="S439" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q439,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T439" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q439,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="440" spans="3:20">
+    <row r="440" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C440" s="13" t="s">
         <v>624</v>
       </c>
@@ -28396,15 +28397,15 @@
         <v>565</v>
       </c>
       <c r="S440" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q440,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T440" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q440,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="441" spans="3:20">
+    <row r="441" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C441" s="13" t="s">
         <v>625</v>
       </c>
@@ -28442,15 +28443,15 @@
         <v>565</v>
       </c>
       <c r="S441" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q441,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T441" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q441,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="442" spans="3:20">
+    <row r="442" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C442" s="13" t="s">
         <v>626</v>
       </c>
@@ -28488,15 +28489,15 @@
         <v>565</v>
       </c>
       <c r="S442" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q442,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T442" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q442,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="443" spans="3:20">
+    <row r="443" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C443" s="13" t="s">
         <v>627</v>
       </c>
@@ -28534,15 +28535,15 @@
         <v>565</v>
       </c>
       <c r="S443" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q443,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T443" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q443,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="444" spans="3:20">
+    <row r="444" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C444" s="13" t="s">
         <v>641</v>
       </c>
@@ -28581,15 +28582,15 @@
         <v>565</v>
       </c>
       <c r="S444" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q444,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T444" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q444,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="445" spans="3:20">
+    <row r="445" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C445" s="13" t="s">
         <v>642</v>
       </c>
@@ -28628,15 +28629,15 @@
         <v>565</v>
       </c>
       <c r="S445" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q445,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T445" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q445,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="446" spans="3:20">
+    <row r="446" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C446" s="13" t="s">
         <v>640</v>
       </c>
@@ -28675,15 +28676,15 @@
         <v>565</v>
       </c>
       <c r="S446" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q446,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T446" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q446,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="447" spans="3:20">
+    <row r="447" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C447" s="13" t="s">
         <v>646</v>
       </c>
@@ -28721,15 +28722,15 @@
         <v>565</v>
       </c>
       <c r="S447" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q447,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T447" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q447,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="448" spans="3:20">
+    <row r="448" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C448" s="13" t="s">
         <v>647</v>
       </c>
@@ -28767,15 +28768,15 @@
         <v>565</v>
       </c>
       <c r="S448" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q448,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T448" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q448,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="449" spans="3:20">
+    <row r="449" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C449" s="13" t="s">
         <v>648</v>
       </c>
@@ -28813,15 +28814,15 @@
         <v>565</v>
       </c>
       <c r="S449" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q449,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="T449" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q449,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="450" spans="3:20">
+    <row r="450" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C450" s="13" t="s">
         <v>671</v>
       </c>
@@ -28859,15 +28860,15 @@
         <v>565</v>
       </c>
       <c r="S450" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q450,1))</f>
+        <f t="shared" ref="S450:S513" si="14">CONCATENATE("chill",LEFT(Q450,1))</f>
         <v>chill4</v>
       </c>
       <c r="T450" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q450,1))</f>
+        <f t="shared" ref="T450:T513" si="15">CONCATENATE("time",RIGHT(Q450,1))</f>
         <v>time3</v>
       </c>
     </row>
-    <row r="451" spans="3:20">
+    <row r="451" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C451" s="13" t="s">
         <v>670</v>
       </c>
@@ -28905,15 +28906,15 @@
         <v>565</v>
       </c>
       <c r="S451" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q451,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T451" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q451,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="452" spans="3:20">
+    <row r="452" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C452" s="13" t="s">
         <v>676</v>
       </c>
@@ -28951,15 +28952,15 @@
         <v>565</v>
       </c>
       <c r="S452" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q452,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T452" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q452,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="453" spans="3:20">
+    <row r="453" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C453" s="13" t="s">
         <v>688</v>
       </c>
@@ -28997,15 +28998,15 @@
         <v>565</v>
       </c>
       <c r="S453" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q453,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T453" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q453,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="454" spans="3:20">
+    <row r="454" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C454" s="13" t="s">
         <v>690</v>
       </c>
@@ -29043,15 +29044,15 @@
         <v>565</v>
       </c>
       <c r="S454" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q454,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T454" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q454,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="455" spans="3:20">
+    <row r="455" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C455" s="13" t="s">
         <v>694</v>
       </c>
@@ -29089,15 +29090,15 @@
         <v>565</v>
       </c>
       <c r="S455" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q455,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T455" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q455,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="456" spans="3:20">
+    <row r="456" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C456" s="13" t="s">
         <v>696</v>
       </c>
@@ -29135,15 +29136,15 @@
         <v>565</v>
       </c>
       <c r="S456" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q456,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T456" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q456,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="457" spans="3:20">
+    <row r="457" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C457" s="13" t="s">
         <v>695</v>
       </c>
@@ -29181,15 +29182,15 @@
         <v>565</v>
       </c>
       <c r="S457" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q457,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T457" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q457,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="458" spans="3:20">
+    <row r="458" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C458" s="13" t="s">
         <v>697</v>
       </c>
@@ -29227,15 +29228,15 @@
         <v>565</v>
       </c>
       <c r="S458" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q458,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T458" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q458,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="459" spans="3:20">
+    <row r="459" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C459" s="13" t="s">
         <v>699</v>
       </c>
@@ -29273,15 +29274,15 @@
         <v>565</v>
       </c>
       <c r="S459" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q459,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T459" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q459,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="460" spans="3:20">
+    <row r="460" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C460" s="13" t="s">
         <v>698</v>
       </c>
@@ -29319,15 +29320,15 @@
         <v>565</v>
       </c>
       <c r="S460" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q460,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T460" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q460,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="461" spans="3:20">
+    <row r="461" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C461" s="13" t="s">
         <v>700</v>
       </c>
@@ -29365,15 +29366,15 @@
         <v>565</v>
       </c>
       <c r="S461" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q461,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T461" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q461,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="462" spans="3:20">
+    <row r="462" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C462" s="13" t="s">
         <v>702</v>
       </c>
@@ -29411,15 +29412,15 @@
         <v>565</v>
       </c>
       <c r="S462" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q462,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T462" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q462,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="463" spans="3:20">
+    <row r="463" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C463" s="13" t="s">
         <v>706</v>
       </c>
@@ -29457,15 +29458,15 @@
         <v>565</v>
       </c>
       <c r="S463" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q463,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T463" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q463,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="464" spans="3:20">
+    <row r="464" spans="3:20" ht="16" hidden="1" thickBot="1">
       <c r="C464" s="13" t="s">
         <v>707</v>
       </c>
@@ -29503,15 +29504,15 @@
         <v>565</v>
       </c>
       <c r="S464" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q464,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T464" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q464,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="C465" s="13" t="s">
         <v>709</v>
       </c>
@@ -29549,15 +29550,15 @@
         <v>565</v>
       </c>
       <c r="S465" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q465,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T465" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q465,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="C466" s="13" t="s">
         <v>711</v>
       </c>
@@ -29595,15 +29596,15 @@
         <v>565</v>
       </c>
       <c r="S466" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q466,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T466" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q466,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="C467" s="13" t="s">
         <v>717</v>
       </c>
@@ -29641,15 +29642,15 @@
         <v>565</v>
       </c>
       <c r="S467" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q467,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T467" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q467,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="C468" s="13" t="s">
         <v>716</v>
       </c>
@@ -29687,15 +29688,15 @@
         <v>565</v>
       </c>
       <c r="S468" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q468,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T468" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q468,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="469" spans="1:26" ht="16" thickBot="1">
+    <row r="469" spans="1:26" ht="16" hidden="1" thickBot="1">
       <c r="C469" s="13" t="s">
         <v>715</v>
       </c>
@@ -29733,11 +29734,11 @@
         <v>565</v>
       </c>
       <c r="S469" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q469,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="T469" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q469,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -29793,11 +29794,11 @@
       </c>
       <c r="R470" s="20"/>
       <c r="S470" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q470,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T470" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q470,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U470" s="20"/>
@@ -29858,11 +29859,11 @@
         <v>403</v>
       </c>
       <c r="S471" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q471,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T471" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q471,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -29917,11 +29918,11 @@
         <v>403</v>
       </c>
       <c r="S472" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q472,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T472" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q472,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -29977,11 +29978,11 @@
       </c>
       <c r="R473" s="20"/>
       <c r="S473" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q473,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T473" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q473,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U473" s="20"/>
@@ -30042,11 +30043,11 @@
         <v>403</v>
       </c>
       <c r="S474" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q474,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T474" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q474,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30101,11 +30102,11 @@
         <v>403</v>
       </c>
       <c r="S475" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q475,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T475" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q475,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30161,11 +30162,11 @@
       </c>
       <c r="R476" s="20"/>
       <c r="S476" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q476,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T476" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q476,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U476" s="20"/>
@@ -30226,11 +30227,11 @@
         <v>403</v>
       </c>
       <c r="S477" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q477,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T477" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q477,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30285,11 +30286,11 @@
         <v>403</v>
       </c>
       <c r="S478" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q478,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T478" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q478,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30345,11 +30346,11 @@
       </c>
       <c r="R479" s="20"/>
       <c r="S479" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q479,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T479" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q479,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U479" s="20"/>
@@ -30410,11 +30411,11 @@
         <v>403</v>
       </c>
       <c r="S480" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q480,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T480" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q480,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30469,11 +30470,11 @@
         <v>403</v>
       </c>
       <c r="S481" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q481,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T481" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q481,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30529,11 +30530,11 @@
       </c>
       <c r="R482" s="20"/>
       <c r="S482" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q482,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T482" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q482,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U482" s="20"/>
@@ -30594,11 +30595,11 @@
         <v>403</v>
       </c>
       <c r="S483" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q483,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T483" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q483,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30653,11 +30654,11 @@
         <v>403</v>
       </c>
       <c r="S484" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q484,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T484" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q484,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30713,11 +30714,11 @@
       </c>
       <c r="R485" s="20"/>
       <c r="S485" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q485,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T485" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q485,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U485" s="20"/>
@@ -30778,11 +30779,11 @@
         <v>403</v>
       </c>
       <c r="S486" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q486,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T486" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q486,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30837,11 +30838,11 @@
         <v>403</v>
       </c>
       <c r="S487" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q487,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T487" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q487,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -30897,11 +30898,11 @@
       </c>
       <c r="R488" s="20"/>
       <c r="S488" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q488,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T488" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q488,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U488" s="20"/>
@@ -30962,11 +30963,11 @@
         <v>403</v>
       </c>
       <c r="S489" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q489,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T489" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q489,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31021,11 +31022,11 @@
         <v>403</v>
       </c>
       <c r="S490" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q490,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T490" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q490,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31081,11 +31082,11 @@
       </c>
       <c r="R491" s="20"/>
       <c r="S491" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q491,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T491" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q491,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U491" s="20"/>
@@ -31146,11 +31147,11 @@
         <v>403</v>
       </c>
       <c r="S492" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q492,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T492" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q492,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31205,11 +31206,11 @@
         <v>403</v>
       </c>
       <c r="S493" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q493,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T493" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q493,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31265,11 +31266,11 @@
       </c>
       <c r="R494" s="20"/>
       <c r="S494" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q494,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T494" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q494,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U494" s="20"/>
@@ -31330,11 +31331,11 @@
         <v>403</v>
       </c>
       <c r="S495" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q495,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T495" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q495,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31389,11 +31390,11 @@
         <v>403</v>
       </c>
       <c r="S496" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q496,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T496" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q496,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31449,11 +31450,11 @@
       </c>
       <c r="R497" s="20"/>
       <c r="S497" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q497,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T497" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q497,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U497" s="20"/>
@@ -31514,11 +31515,11 @@
         <v>403</v>
       </c>
       <c r="S498" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q498,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T498" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q498,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31573,11 +31574,11 @@
         <v>403</v>
       </c>
       <c r="S499" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q499,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T499" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q499,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31633,11 +31634,11 @@
       </c>
       <c r="R500" s="20"/>
       <c r="S500" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q500,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T500" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q500,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U500" s="20"/>
@@ -31698,11 +31699,11 @@
         <v>403</v>
       </c>
       <c r="S501" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q501,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T501" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q501,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31757,11 +31758,11 @@
         <v>403</v>
       </c>
       <c r="S502" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q502,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T502" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q502,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31817,11 +31818,11 @@
       </c>
       <c r="R503" s="20"/>
       <c r="S503" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q503,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T503" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q503,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U503" s="20"/>
@@ -31882,11 +31883,11 @@
         <v>403</v>
       </c>
       <c r="S504" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q504,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T504" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q504,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -31941,11 +31942,11 @@
         <v>403</v>
       </c>
       <c r="S505" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q505,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T505" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q505,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32001,11 +32002,11 @@
       </c>
       <c r="R506" s="20"/>
       <c r="S506" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q506,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T506" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q506,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U506" s="20"/>
@@ -32066,11 +32067,11 @@
         <v>403</v>
       </c>
       <c r="S507" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q507,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T507" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q507,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32125,11 +32126,11 @@
         <v>403</v>
       </c>
       <c r="S508" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q508,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T508" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q508,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32185,11 +32186,11 @@
       </c>
       <c r="R509" s="20"/>
       <c r="S509" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q509,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T509" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q509,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U509" s="20"/>
@@ -32250,11 +32251,11 @@
         <v>403</v>
       </c>
       <c r="S510" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q510,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T510" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q510,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32309,11 +32310,11 @@
         <v>403</v>
       </c>
       <c r="S511" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q511,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T511" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q511,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32369,11 +32370,11 @@
       </c>
       <c r="R512" s="20"/>
       <c r="S512" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q512,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T512" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q512,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="U512" s="20"/>
@@ -32434,11 +32435,11 @@
         <v>403</v>
       </c>
       <c r="S513" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q513,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="T513" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q513,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -32493,11 +32494,11 @@
         <v>403</v>
       </c>
       <c r="S514" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q514,1))</f>
+        <f t="shared" ref="S514:S577" si="16">CONCATENATE("chill",LEFT(Q514,1))</f>
         <v>chill8</v>
       </c>
       <c r="T514" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q514,1))</f>
+        <f t="shared" ref="T514:T577" si="17">CONCATENATE("time",RIGHT(Q514,1))</f>
         <v>time1</v>
       </c>
     </row>
@@ -32553,11 +32554,11 @@
       </c>
       <c r="R515" s="20"/>
       <c r="S515" s="20" t="str">
-        <f>CONCATENATE("chill",LEFT(Q515,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T515" s="20" t="str">
-        <f>CONCATENATE("time",RIGHT(Q515,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
       <c r="U515" s="20"/>
@@ -32618,11 +32619,11 @@
         <v>403</v>
       </c>
       <c r="S516" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q516,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T516" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q516,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
     </row>
@@ -32677,11 +32678,11 @@
         <v>403</v>
       </c>
       <c r="S517" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q517,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T517" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q517,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
     </row>
@@ -32723,11 +32724,11 @@
         <v>405</v>
       </c>
       <c r="S518" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q518,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T518" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q518,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -32769,11 +32770,11 @@
         <v>405</v>
       </c>
       <c r="S519" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q519,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T519" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q519,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -32815,11 +32816,11 @@
         <v>405</v>
       </c>
       <c r="S520" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q520,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T520" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q520,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -32861,11 +32862,11 @@
         <v>405</v>
       </c>
       <c r="S521" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q521,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T521" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q521,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -32907,11 +32908,11 @@
         <v>405</v>
       </c>
       <c r="S522" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q522,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T522" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q522,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -32962,11 +32963,11 @@
         <v>12</v>
       </c>
       <c r="S523" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q523,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T523" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q523,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33008,11 +33009,11 @@
         <v>405</v>
       </c>
       <c r="S524" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q524,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T524" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q524,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33054,11 +33055,11 @@
         <v>405</v>
       </c>
       <c r="S525" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q525,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T525" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q525,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33100,11 +33101,11 @@
         <v>405</v>
       </c>
       <c r="S526" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q526,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T526" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q526,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33146,11 +33147,11 @@
         <v>405</v>
       </c>
       <c r="S527" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q527,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T527" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q527,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33192,11 +33193,11 @@
         <v>405</v>
       </c>
       <c r="S528" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q528,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T528" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q528,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33238,11 +33239,11 @@
         <v>405</v>
       </c>
       <c r="S529" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q529,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T529" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q529,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33284,11 +33285,11 @@
         <v>405</v>
       </c>
       <c r="S530" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q530,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T530" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q530,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33330,11 +33331,11 @@
         <v>405</v>
       </c>
       <c r="S531" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q531,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T531" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q531,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33376,11 +33377,11 @@
         <v>405</v>
       </c>
       <c r="S532" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q532,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T532" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q532,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33422,11 +33423,11 @@
         <v>405</v>
       </c>
       <c r="S533" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q533,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T533" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q533,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33468,11 +33469,11 @@
         <v>405</v>
       </c>
       <c r="S534" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q534,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T534" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q534,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33514,11 +33515,11 @@
         <v>405</v>
       </c>
       <c r="S535" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q535,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T535" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q535,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33560,11 +33561,11 @@
         <v>405</v>
       </c>
       <c r="S536" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q536,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T536" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q536,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33606,11 +33607,11 @@
         <v>405</v>
       </c>
       <c r="S537" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q537,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T537" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q537,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33652,11 +33653,11 @@
         <v>405</v>
       </c>
       <c r="S538" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q538,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T538" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q538,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33707,11 +33708,11 @@
         <v>13</v>
       </c>
       <c r="S539" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q539,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T539" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q539,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33753,11 +33754,11 @@
         <v>405</v>
       </c>
       <c r="S540" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q540,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T540" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q540,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33799,11 +33800,11 @@
         <v>405</v>
       </c>
       <c r="S541" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q541,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T541" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q541,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33845,11 +33846,11 @@
         <v>405</v>
       </c>
       <c r="S542" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q542,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T542" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q542,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33891,11 +33892,11 @@
         <v>405</v>
       </c>
       <c r="S543" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q543,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T543" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q543,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33937,11 +33938,11 @@
         <v>405</v>
       </c>
       <c r="S544" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q544,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T544" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q544,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -33983,11 +33984,11 @@
         <v>405</v>
       </c>
       <c r="S545" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q545,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T545" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q545,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34029,11 +34030,11 @@
         <v>405</v>
       </c>
       <c r="S546" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q546,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T546" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q546,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34075,11 +34076,11 @@
         <v>405</v>
       </c>
       <c r="S547" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q547,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T547" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q547,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34121,11 +34122,11 @@
         <v>405</v>
       </c>
       <c r="S548" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q548,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T548" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q548,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34167,11 +34168,11 @@
         <v>405</v>
       </c>
       <c r="S549" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q549,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T549" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q549,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34213,11 +34214,11 @@
         <v>405</v>
       </c>
       <c r="S550" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q550,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T550" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q550,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34268,11 +34269,11 @@
         <v>13</v>
       </c>
       <c r="S551" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q551,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T551" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q551,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34323,11 +34324,11 @@
         <v>14</v>
       </c>
       <c r="S552" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q552,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T552" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q552,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34369,11 +34370,11 @@
         <v>405</v>
       </c>
       <c r="S553" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q553,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T553" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q553,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34415,11 +34416,11 @@
         <v>405</v>
       </c>
       <c r="S554" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q554,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T554" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q554,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34461,11 +34462,11 @@
         <v>405</v>
       </c>
       <c r="S555" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q555,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T555" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q555,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34507,11 +34508,11 @@
         <v>405</v>
       </c>
       <c r="S556" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q556,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T556" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q556,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34553,11 +34554,11 @@
         <v>405</v>
       </c>
       <c r="S557" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q557,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T557" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q557,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34599,11 +34600,11 @@
         <v>405</v>
       </c>
       <c r="S558" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q558,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T558" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q558,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34654,11 +34655,11 @@
         <v>12</v>
       </c>
       <c r="S559" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q559,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T559" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q559,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34709,11 +34710,11 @@
         <v>14</v>
       </c>
       <c r="S560" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q560,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T560" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q560,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34755,11 +34756,11 @@
         <v>405</v>
       </c>
       <c r="S561" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q561,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T561" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q561,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34801,11 +34802,11 @@
         <v>405</v>
       </c>
       <c r="S562" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q562,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T562" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q562,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34847,11 +34848,11 @@
         <v>405</v>
       </c>
       <c r="S563" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q563,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T563" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q563,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34893,11 +34894,11 @@
         <v>405</v>
       </c>
       <c r="S564" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q564,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T564" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q564,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34939,11 +34940,11 @@
         <v>405</v>
       </c>
       <c r="S565" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q565,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T565" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q565,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -34985,11 +34986,11 @@
         <v>405</v>
       </c>
       <c r="S566" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q566,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T566" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q566,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -35040,11 +35041,11 @@
         <v>12</v>
       </c>
       <c r="S567" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q567,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T567" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q567,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -35086,11 +35087,11 @@
         <v>405</v>
       </c>
       <c r="S568" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q568,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T568" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q568,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -35132,11 +35133,11 @@
         <v>405</v>
       </c>
       <c r="S569" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q569,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T569" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q569,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -35178,15 +35179,15 @@
         <v>405</v>
       </c>
       <c r="S570" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q570,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T570" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q570,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
-    <row r="571" spans="3:20">
+    <row r="571" spans="3:20" hidden="1">
       <c r="C571" s="13" t="s">
         <v>409</v>
       </c>
@@ -35233,15 +35234,15 @@
         <v>15</v>
       </c>
       <c r="S571" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q571,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T571" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q571,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="572" spans="3:20">
+    <row r="572" spans="3:20" hidden="1">
       <c r="C572" s="13" t="s">
         <v>413</v>
       </c>
@@ -35279,15 +35280,15 @@
         <v>407</v>
       </c>
       <c r="S572" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q572,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T572" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q572,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="573" spans="3:20">
+    <row r="573" spans="3:20" hidden="1">
       <c r="C573" s="13" t="s">
         <v>412</v>
       </c>
@@ -35325,15 +35326,15 @@
         <v>407</v>
       </c>
       <c r="S573" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q573,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T573" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q573,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="574" spans="3:20">
+    <row r="574" spans="3:20" hidden="1">
       <c r="C574" s="13" t="s">
         <v>411</v>
       </c>
@@ -35371,15 +35372,15 @@
         <v>407</v>
       </c>
       <c r="S574" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q574,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T574" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q574,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="575" spans="3:20">
+    <row r="575" spans="3:20" hidden="1">
       <c r="C575" s="13" t="s">
         <v>414</v>
       </c>
@@ -35417,15 +35418,15 @@
         <v>407</v>
       </c>
       <c r="S575" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q575,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T575" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q575,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="576" spans="3:20">
+    <row r="576" spans="3:20" hidden="1">
       <c r="C576" s="13" t="s">
         <v>416</v>
       </c>
@@ -35463,15 +35464,15 @@
         <v>407</v>
       </c>
       <c r="S576" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q576,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T576" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q576,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="577" spans="3:20">
+    <row r="577" spans="3:20" hidden="1">
       <c r="C577" s="13" t="s">
         <v>415</v>
       </c>
@@ -35509,15 +35510,15 @@
         <v>407</v>
       </c>
       <c r="S577" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q577,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="T577" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q577,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="578" spans="3:20">
+    <row r="578" spans="3:20" hidden="1">
       <c r="C578" s="13" t="s">
         <v>417</v>
       </c>
@@ -35555,15 +35556,15 @@
         <v>407</v>
       </c>
       <c r="S578" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q578,1))</f>
+        <f t="shared" ref="S578:S625" si="18">CONCATENATE("chill",LEFT(Q578,1))</f>
         <v>chill8</v>
       </c>
       <c r="T578" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q578,1))</f>
+        <f t="shared" ref="T578:T625" si="19">CONCATENATE("time",RIGHT(Q578,1))</f>
         <v>time3</v>
       </c>
     </row>
-    <row r="579" spans="3:20">
+    <row r="579" spans="3:20" hidden="1">
       <c r="C579" s="13" t="s">
         <v>419</v>
       </c>
@@ -35601,15 +35602,15 @@
         <v>407</v>
       </c>
       <c r="S579" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q579,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T579" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q579,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="580" spans="3:20">
+    <row r="580" spans="3:20" hidden="1">
       <c r="C580" s="13" t="s">
         <v>418</v>
       </c>
@@ -35647,15 +35648,15 @@
         <v>407</v>
       </c>
       <c r="S580" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q580,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T580" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q580,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="581" spans="3:20">
+    <row r="581" spans="3:20" hidden="1">
       <c r="C581" s="13" t="s">
         <v>420</v>
       </c>
@@ -35693,15 +35694,15 @@
         <v>407</v>
       </c>
       <c r="S581" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q581,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T581" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q581,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="582" spans="3:20">
+    <row r="582" spans="3:20" hidden="1">
       <c r="C582" s="13" t="s">
         <v>422</v>
       </c>
@@ -35739,15 +35740,15 @@
         <v>407</v>
       </c>
       <c r="S582" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q582,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T582" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q582,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="583" spans="3:20">
+    <row r="583" spans="3:20" hidden="1">
       <c r="C583" s="13" t="s">
         <v>421</v>
       </c>
@@ -35785,15 +35786,15 @@
         <v>407</v>
       </c>
       <c r="S583" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q583,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T583" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q583,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="584" spans="3:20">
+    <row r="584" spans="3:20" hidden="1">
       <c r="C584" s="13" t="s">
         <v>430</v>
       </c>
@@ -35831,15 +35832,15 @@
         <v>407</v>
       </c>
       <c r="S584" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q584,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T584" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q584,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="585" spans="3:20">
+    <row r="585" spans="3:20" hidden="1">
       <c r="C585" s="13" t="s">
         <v>429</v>
       </c>
@@ -35877,15 +35878,15 @@
         <v>407</v>
       </c>
       <c r="S585" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q585,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T585" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q585,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="586" spans="3:20">
+    <row r="586" spans="3:20" hidden="1">
       <c r="C586" s="13" t="s">
         <v>441</v>
       </c>
@@ -35923,15 +35924,15 @@
         <v>407</v>
       </c>
       <c r="S586" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q586,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T586" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q586,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="587" spans="3:20">
+    <row r="587" spans="3:20" hidden="1">
       <c r="C587" s="13" t="s">
         <v>442</v>
       </c>
@@ -35969,15 +35970,15 @@
         <v>407</v>
       </c>
       <c r="S587" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q587,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T587" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q587,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="588" spans="3:20">
+    <row r="588" spans="3:20" hidden="1">
       <c r="C588" s="13" t="s">
         <v>443</v>
       </c>
@@ -36015,15 +36016,15 @@
         <v>407</v>
       </c>
       <c r="S588" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q588,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T588" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q588,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="589" spans="3:20">
+    <row r="589" spans="3:20" hidden="1">
       <c r="C589" s="13" t="s">
         <v>444</v>
       </c>
@@ -36062,15 +36063,15 @@
         <v>407</v>
       </c>
       <c r="S589" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q589,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T589" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q589,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="590" spans="3:20">
+    <row r="590" spans="3:20" hidden="1">
       <c r="C590" s="13" t="s">
         <v>446</v>
       </c>
@@ -36109,15 +36110,15 @@
         <v>407</v>
       </c>
       <c r="S590" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q590,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T590" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q590,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="591" spans="3:20">
+    <row r="591" spans="3:20" hidden="1">
       <c r="C591" s="13" t="s">
         <v>445</v>
       </c>
@@ -36156,15 +36157,15 @@
         <v>407</v>
       </c>
       <c r="S591" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q591,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T591" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q591,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="592" spans="3:20">
+    <row r="592" spans="3:20" hidden="1">
       <c r="C592" s="13" t="s">
         <v>450</v>
       </c>
@@ -36202,15 +36203,15 @@
         <v>407</v>
       </c>
       <c r="S592" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q592,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T592" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q592,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="593" spans="3:20">
+    <row r="593" spans="3:20" hidden="1">
       <c r="C593" s="13" t="s">
         <v>452</v>
       </c>
@@ -36248,15 +36249,15 @@
         <v>407</v>
       </c>
       <c r="S593" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q593,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T593" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q593,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="594" spans="3:20">
+    <row r="594" spans="3:20" hidden="1">
       <c r="C594" s="13" t="s">
         <v>451</v>
       </c>
@@ -36294,15 +36295,15 @@
         <v>407</v>
       </c>
       <c r="S594" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q594,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T594" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q594,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="595" spans="3:20">
+    <row r="595" spans="3:20" hidden="1">
       <c r="C595" s="13" t="s">
         <v>455</v>
       </c>
@@ -36340,15 +36341,15 @@
         <v>407</v>
       </c>
       <c r="S595" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q595,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T595" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q595,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="596" spans="3:20">
+    <row r="596" spans="3:20" hidden="1">
       <c r="C596" s="13" t="s">
         <v>454</v>
       </c>
@@ -36386,15 +36387,15 @@
         <v>407</v>
       </c>
       <c r="S596" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q596,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T596" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q596,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="597" spans="3:20">
+    <row r="597" spans="3:20" hidden="1">
       <c r="C597" s="13" t="s">
         <v>453</v>
       </c>
@@ -36432,15 +36433,15 @@
         <v>407</v>
       </c>
       <c r="S597" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q597,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T597" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q597,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="598" spans="3:20">
+    <row r="598" spans="3:20" hidden="1">
       <c r="C598" s="13" t="s">
         <v>460</v>
       </c>
@@ -36487,15 +36488,15 @@
         <v>15</v>
       </c>
       <c r="S598" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q598,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T598" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q598,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="599" spans="3:20">
+    <row r="599" spans="3:20" hidden="1">
       <c r="C599" s="13" t="s">
         <v>470</v>
       </c>
@@ -36533,15 +36534,15 @@
         <v>407</v>
       </c>
       <c r="S599" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q599,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T599" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q599,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="600" spans="3:20">
+    <row r="600" spans="3:20" hidden="1">
       <c r="C600" s="13" t="s">
         <v>469</v>
       </c>
@@ -36579,15 +36580,15 @@
         <v>407</v>
       </c>
       <c r="S600" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q600,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T600" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q600,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="601" spans="3:20">
+    <row r="601" spans="3:20" hidden="1">
       <c r="C601" s="13" t="s">
         <v>468</v>
       </c>
@@ -36625,15 +36626,15 @@
         <v>407</v>
       </c>
       <c r="S601" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q601,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T601" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q601,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="602" spans="3:20">
+    <row r="602" spans="3:20" hidden="1">
       <c r="C602" s="13" t="s">
         <v>472</v>
       </c>
@@ -36680,15 +36681,15 @@
         <v>16</v>
       </c>
       <c r="S602" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q602,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T602" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q602,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="603" spans="3:20">
+    <row r="603" spans="3:20" hidden="1">
       <c r="C603" s="13" t="s">
         <v>476</v>
       </c>
@@ -36726,15 +36727,15 @@
         <v>407</v>
       </c>
       <c r="S603" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q603,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T603" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q603,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="604" spans="3:20">
+    <row r="604" spans="3:20" hidden="1">
       <c r="C604" s="13" t="s">
         <v>475</v>
       </c>
@@ -36772,15 +36773,15 @@
         <v>407</v>
       </c>
       <c r="S604" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q604,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T604" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q604,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="605" spans="3:20">
+    <row r="605" spans="3:20" hidden="1">
       <c r="C605" s="13" t="s">
         <v>474</v>
       </c>
@@ -36818,15 +36819,15 @@
         <v>407</v>
       </c>
       <c r="S605" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q605,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T605" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q605,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="606" spans="3:20">
+    <row r="606" spans="3:20" hidden="1">
       <c r="C606" s="13" t="s">
         <v>481</v>
       </c>
@@ -36864,15 +36865,15 @@
         <v>407</v>
       </c>
       <c r="S606" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q606,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T606" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q606,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="607" spans="3:20">
+    <row r="607" spans="3:20" hidden="1">
       <c r="C607" s="13" t="s">
         <v>482</v>
       </c>
@@ -36910,15 +36911,15 @@
         <v>407</v>
       </c>
       <c r="S607" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q607,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T607" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q607,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="608" spans="3:20">
+    <row r="608" spans="3:20" hidden="1">
       <c r="C608" s="13" t="s">
         <v>480</v>
       </c>
@@ -36956,15 +36957,15 @@
         <v>407</v>
       </c>
       <c r="S608" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q608,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T608" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q608,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="609" spans="3:20">
+    <row r="609" spans="3:20" hidden="1">
       <c r="C609" s="13" t="s">
         <v>491</v>
       </c>
@@ -37011,15 +37012,15 @@
         <v>15</v>
       </c>
       <c r="S609" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q609,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T609" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q609,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="610" spans="3:20">
+    <row r="610" spans="3:20" hidden="1">
       <c r="C610" s="13" t="s">
         <v>495</v>
       </c>
@@ -37057,15 +37058,15 @@
         <v>407</v>
       </c>
       <c r="S610" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q610,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T610" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q610,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="611" spans="3:20">
+    <row r="611" spans="3:20" hidden="1">
       <c r="C611" s="13" t="s">
         <v>496</v>
       </c>
@@ -37103,15 +37104,15 @@
         <v>407</v>
       </c>
       <c r="S611" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q611,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T611" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q611,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="612" spans="3:20">
+    <row r="612" spans="3:20" hidden="1">
       <c r="C612" s="13" t="s">
         <v>506</v>
       </c>
@@ -37149,15 +37150,15 @@
         <v>407</v>
       </c>
       <c r="S612" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q612,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T612" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q612,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="613" spans="3:20">
+    <row r="613" spans="3:20" hidden="1">
       <c r="C613" s="13" t="s">
         <v>504</v>
       </c>
@@ -37195,15 +37196,15 @@
         <v>407</v>
       </c>
       <c r="S613" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q613,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T613" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q613,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="614" spans="3:20">
+    <row r="614" spans="3:20" hidden="1">
       <c r="C614" s="13" t="s">
         <v>505</v>
       </c>
@@ -37241,15 +37242,15 @@
         <v>407</v>
       </c>
       <c r="S614" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q614,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T614" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q614,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="615" spans="3:20">
+    <row r="615" spans="3:20" hidden="1">
       <c r="C615" s="13" t="s">
         <v>512</v>
       </c>
@@ -37296,15 +37297,15 @@
         <v>16</v>
       </c>
       <c r="S615" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q615,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T615" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q615,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="616" spans="3:20">
+    <row r="616" spans="3:20" hidden="1">
       <c r="C616" s="13" t="s">
         <v>516</v>
       </c>
@@ -37342,15 +37343,15 @@
         <v>407</v>
       </c>
       <c r="S616" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q616,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T616" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q616,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="617" spans="3:20">
+    <row r="617" spans="3:20" hidden="1">
       <c r="C617" s="13" t="s">
         <v>517</v>
       </c>
@@ -37388,15 +37389,15 @@
         <v>407</v>
       </c>
       <c r="S617" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q617,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T617" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q617,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="618" spans="3:20">
+    <row r="618" spans="3:20" hidden="1">
       <c r="C618" s="13" t="s">
         <v>521</v>
       </c>
@@ -37434,15 +37435,15 @@
         <v>407</v>
       </c>
       <c r="S618" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q618,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T618" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q618,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="619" spans="3:20">
+    <row r="619" spans="3:20" hidden="1">
       <c r="C619" s="13" t="s">
         <v>520</v>
       </c>
@@ -37480,15 +37481,15 @@
         <v>407</v>
       </c>
       <c r="S619" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q619,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T619" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q619,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="620" spans="3:20">
+    <row r="620" spans="3:20" hidden="1">
       <c r="C620" s="13" t="s">
         <v>519</v>
       </c>
@@ -37526,15 +37527,15 @@
         <v>407</v>
       </c>
       <c r="S620" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q620,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T620" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q620,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="621" spans="3:20">
+    <row r="621" spans="3:20" hidden="1">
       <c r="C621" s="13" t="s">
         <v>525</v>
       </c>
@@ -37572,15 +37573,15 @@
         <v>407</v>
       </c>
       <c r="S621" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q621,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T621" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q621,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="622" spans="3:20">
+    <row r="622" spans="3:20" hidden="1">
       <c r="C622" s="13" t="s">
         <v>527</v>
       </c>
@@ -37618,15 +37619,15 @@
         <v>407</v>
       </c>
       <c r="S622" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q622,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T622" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q622,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="623" spans="3:20">
+    <row r="623" spans="3:20" hidden="1">
       <c r="C623" s="13" t="s">
         <v>537</v>
       </c>
@@ -37664,15 +37665,15 @@
         <v>407</v>
       </c>
       <c r="S623" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q623,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T623" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q623,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="624" spans="3:20">
+    <row r="624" spans="3:20" hidden="1">
       <c r="C624" s="13" t="s">
         <v>555</v>
       </c>
@@ -37710,15 +37711,15 @@
         <v>407</v>
       </c>
       <c r="S624" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q624,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T624" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q624,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
-    <row r="625" spans="3:20">
+    <row r="625" spans="3:20" hidden="1">
       <c r="C625" s="13" t="s">
         <v>556</v>
       </c>
@@ -37756,16 +37757,23 @@
         <v>407</v>
       </c>
       <c r="S625" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(Q625,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="T625" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(Q625,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:Z625">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="time1"/>
+        <filter val="time2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AA625">
     <sortCondition ref="Q2:Q625"/>
     <sortCondition ref="J2:J625"/>

--- a/Budburst Chill Datasheet 2016-01-05.xlsx
+++ b/Budburst Chill Datasheet 2016-01-05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="25780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -3491,7 +3491,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="J352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="U377" sqref="U377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
